--- a/www/docs/Prussia_1680_1879_all_data.xlsx
+++ b/www/docs/Prussia_1680_1879_all_data.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Data Clio Infra Format" r:id="rId3" sheetId="1"/>
-    <sheet name="Metadata" r:id="rId4" sheetId="2"/>
+    <sheet name="Data Long Format" r:id="rId4" sheetId="2"/>
+    <sheet name="Metadata" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="736">
   <si>
     <t>Webmapper code</t>
   </si>
@@ -1587,34 +1588,595 @@
     <t>2015</t>
   </si>
   <si>
-    <t>geacron/877</t>
-  </si>
-  <si>
-    <t>geacron/878</t>
-  </si>
-  <si>
-    <t>geacron/879</t>
-  </si>
-  <si>
-    <t>geacron/880</t>
-  </si>
-  <si>
-    <t>geacron/881</t>
-  </si>
-  <si>
-    <t>geacron/882</t>
-  </si>
-  <si>
-    <t>geacron/883</t>
-  </si>
-  <si>
-    <t>geacron/884</t>
+    <t>c("geacron/877", "geacron/878", "geacron/879", "geacron/880", "geacron/881", "geacron/882", "geacron/883", "geacron/884")</t>
+  </si>
+  <si>
+    <t>c(877, 878, 879, 880, 881, 882, 883, 884)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c("Prussia", "Prussia", "Prussia", "Prussia", "Prussia", "Prussia", "Prussia", "Prussia")</t>
+  </si>
+  <si>
+    <t>c("1680", "1720", "1740", "1760", "1780", "1800", "1820", "1860")</t>
+  </si>
+  <si>
+    <t>c("1719", "1739", "1759", "1779", "1799", "1819", "1859", "1879")</t>
+  </si>
+  <si>
+    <t>c("Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx")</t>
+  </si>
+  <si>
+    <t>c("Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound")</t>
+  </si>
+  <si>
+    <t>c(13.1544330439, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(13.246787654, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(13.0804447351, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.9600829445, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.9048909537, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(13.0975769483, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.656, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.563, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.5596583773, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.187, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.3441550426, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.4968757811, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(11.9976004799, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(11.6536534203, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(10.7457554266, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(11.4613180516, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.6566257436, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.9215660938, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.7048659637, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.8783000644, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(13.2257637879, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.7926314443, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.211503236, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.2579063496, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.2819945959, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.5313283208, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.6406269751, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.5533517449, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.2955858847, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.247397428, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.4766063631, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.4409056979, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.9115558425, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(13.0616509927, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(13.1250820318, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.936610608, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.6984126984, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.6630365962, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.9349372656, NA, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 12.8468653649, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 12.8122998078, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.133701077, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 12.9634430905, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 12.7665007022, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 12.7291242363, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.0225289751, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.0667712008, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 12.7616130679, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 12.5250501002, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 12.4409056979, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 12.6903553299, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 12.8238009746, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 12.8617363344, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.3636242149, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.2502981317, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.0106687484, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 12.7926314443, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 12.7437237161, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 12.8799587841, NA, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 12.8139415684, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 12.6342387871, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 12.6119308866, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 12.6151129053, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 12.5928724342, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 12.7991808524, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 13.3654103181, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 13.1440588854, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 13.0429111778, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 12.8982329421, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 12.5960448419, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 12.5897016241, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 12.5328988595, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 12.4843945069, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 12.573871495, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 12.9182276192, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 13.3886731825, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 13.5888028265, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 13.8888888889, NA, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 12.5015626953, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 12.1550990641, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 12.9433083096, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 12.8303823454, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 13.1371518655, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 13.0055924047, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 13.1406044678, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 13.3600534402, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 12.836970475, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 12.5234815279, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 12.4595066035, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 12.4564025909, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 12.4347177319, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 12.9920748344, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 13.0242250586, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 12.8567755207, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 12.5659713496, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 12.2189638319, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 12.745347948, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 13.1873928524, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 12.95001295, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 12.3977188197, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 12.1285627653, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 12.0554550934, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 12.8353228084, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 13.2170235263, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 12.9735339907, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 13.0191381331, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 13.1423314496, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 13.2205182443, NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, 13.2643586683, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, 13.3564845733, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, 12.9148908692, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, 13.5777325187, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, 13.3582687684, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, 12.6598303583, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, 12.685525815, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, 13.7193030594, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, 14.1322781232, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, 13.0667712008, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 11.9189511323, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 11.7785630153, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 12.33349778, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 12.836970475, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 13.2961042415, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 13.0872922392, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 12.8024580719, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 12.9600829445, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 12.8122998078, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 11.1844312717, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 11.2726862811, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 9.34579439252, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 10.3809820409, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 10.3626943005, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 11.2790435371, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 11.8301194842, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 13.4698275862, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 13.2996409097, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 12.8501670522, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, 13.170025023, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 13.8696255201, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 14.3204926249, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 14.1103428813, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 14.2694063927, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 13.9899272524, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 13.8408304498, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 14.1302811926, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 13.9198218263, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 13.8007176373, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 13.9004726161, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 14.0193466984, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 13.7494843943, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 13.9508928571, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 13.7005069188, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 13.7608366589, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 13.8102472034, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 13.7193030594, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 13.6202669572, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 13.5299688811, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 13.5998912009, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 13.86001386, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 13.7892995036, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 13.7098985468, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 13.5098621994, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 13.4408602151, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 13.3493525564, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 13.4898151895, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 13.5906496331, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 13.5391280802, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, 13.3404482391, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 13.3600534402)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 13.5795763172)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 13.5007425408)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 13.5593220339)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 13.5998912009)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 13.5906496331)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 13.6407038603)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 13.7005069188)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 13.6705399863)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 13.65001365)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 20.5212394829)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 20.6100577082)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 20.7210940738)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 20.6440957886)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 20.6398348813)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA, NA, NA, NA, 20.6270627063)</t>
+  </si>
+  <si>
+    <t>Borders Start Year</t>
+  </si>
+  <si>
+    <t>Borders End Year</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
   <si>
     <t>Prussia</t>
-  </si>
-  <si>
-    <t>Exchange_Rates_UK-historical.xlsx</t>
   </si>
   <si>
     <t>Exchange Rates to UK Pound</t>
@@ -3288,643 +3850,1585 @@
       <c r="A2" t="s">
         <v>524</v>
       </c>
-      <c r="B2" t="n">
-        <v>877.0</v>
-      </c>
-      <c r="C2"/>
+      <c r="B2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C2" t="s">
+        <v>526</v>
+      </c>
       <c r="D2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F2" t="s">
+        <v>529</v>
+      </c>
+      <c r="G2" t="s">
+        <v>530</v>
+      </c>
+      <c r="H2" t="s">
+        <v>531</v>
+      </c>
+      <c r="I2" t="s">
+        <v>526</v>
+      </c>
+      <c r="J2" t="s">
+        <v>526</v>
+      </c>
+      <c r="K2" t="s">
+        <v>526</v>
+      </c>
+      <c r="L2" t="s">
+        <v>526</v>
+      </c>
+      <c r="M2" t="s">
+        <v>526</v>
+      </c>
+      <c r="N2" t="s">
+        <v>526</v>
+      </c>
+      <c r="O2" t="s">
+        <v>526</v>
+      </c>
+      <c r="P2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>526</v>
+      </c>
+      <c r="R2" t="s">
+        <v>526</v>
+      </c>
+      <c r="S2" t="s">
+        <v>526</v>
+      </c>
+      <c r="T2" t="s">
+        <v>526</v>
+      </c>
+      <c r="U2" t="s">
+        <v>526</v>
+      </c>
+      <c r="V2" t="s">
+        <v>526</v>
+      </c>
+      <c r="W2" t="s">
+        <v>526</v>
+      </c>
+      <c r="X2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GG2" t="s">
         <v>532</v>
       </c>
-      <c r="E2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="GH2" t="s">
         <v>533</v>
       </c>
-      <c r="H2" t="s">
+      <c r="GI2" t="s">
         <v>534</v>
       </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
-      <c r="AK2"/>
-      <c r="AL2"/>
-      <c r="AM2"/>
-      <c r="AN2"/>
-      <c r="AO2"/>
-      <c r="AP2"/>
-      <c r="AQ2"/>
-      <c r="AR2"/>
-      <c r="AS2"/>
-      <c r="AT2"/>
-      <c r="AU2"/>
-      <c r="AV2"/>
-      <c r="AW2"/>
-      <c r="AX2"/>
-      <c r="AY2"/>
-      <c r="AZ2"/>
-      <c r="BA2"/>
-      <c r="BB2"/>
-      <c r="BC2"/>
-      <c r="BD2"/>
-      <c r="BE2"/>
-      <c r="BF2"/>
-      <c r="BG2"/>
-      <c r="BH2"/>
-      <c r="BI2"/>
-      <c r="BJ2"/>
-      <c r="BK2"/>
-      <c r="BL2"/>
-      <c r="BM2"/>
-      <c r="BN2"/>
-      <c r="BO2"/>
-      <c r="BP2"/>
-      <c r="BQ2"/>
-      <c r="BR2"/>
-      <c r="BS2"/>
-      <c r="BT2"/>
-      <c r="BU2"/>
-      <c r="BV2"/>
-      <c r="BW2"/>
-      <c r="BX2"/>
-      <c r="BY2"/>
-      <c r="BZ2"/>
-      <c r="CA2"/>
-      <c r="CB2"/>
-      <c r="CC2"/>
-      <c r="CD2"/>
-      <c r="CE2"/>
-      <c r="CF2"/>
-      <c r="CG2"/>
-      <c r="CH2"/>
-      <c r="CI2"/>
-      <c r="CJ2"/>
-      <c r="CK2"/>
-      <c r="CL2"/>
-      <c r="CM2"/>
-      <c r="CN2"/>
-      <c r="CO2"/>
-      <c r="CP2"/>
-      <c r="CQ2"/>
-      <c r="CR2"/>
-      <c r="CS2"/>
-      <c r="CT2"/>
-      <c r="CU2"/>
-      <c r="CV2"/>
-      <c r="CW2"/>
-      <c r="CX2"/>
-      <c r="CY2"/>
-      <c r="CZ2"/>
-      <c r="DA2"/>
-      <c r="DB2"/>
-      <c r="DC2"/>
-      <c r="DD2"/>
-      <c r="DE2"/>
-      <c r="DF2"/>
-      <c r="DG2"/>
-      <c r="DH2"/>
-      <c r="DI2"/>
-      <c r="DJ2"/>
-      <c r="DK2"/>
-      <c r="DL2"/>
-      <c r="DM2"/>
-      <c r="DN2"/>
-      <c r="DO2"/>
-      <c r="DP2"/>
-      <c r="DQ2"/>
-      <c r="DR2"/>
-      <c r="DS2"/>
-      <c r="DT2"/>
-      <c r="DU2"/>
-      <c r="DV2"/>
-      <c r="DW2"/>
-      <c r="DX2"/>
-      <c r="DY2"/>
-      <c r="DZ2"/>
-      <c r="EA2"/>
-      <c r="EB2"/>
-      <c r="EC2"/>
-      <c r="ED2"/>
-      <c r="EE2"/>
-      <c r="EF2"/>
-      <c r="EG2"/>
-      <c r="EH2"/>
-      <c r="EI2"/>
-      <c r="EJ2"/>
-      <c r="EK2"/>
-      <c r="EL2"/>
-      <c r="EM2"/>
-      <c r="EN2"/>
-      <c r="EO2"/>
-      <c r="EP2"/>
-      <c r="EQ2"/>
-      <c r="ER2"/>
-      <c r="ES2"/>
-      <c r="ET2"/>
-      <c r="EU2"/>
-      <c r="EV2"/>
-      <c r="EW2"/>
-      <c r="EX2"/>
-      <c r="EY2"/>
-      <c r="EZ2"/>
-      <c r="FA2"/>
-      <c r="FB2"/>
-      <c r="FC2"/>
-      <c r="FD2"/>
-      <c r="FE2"/>
-      <c r="FF2"/>
-      <c r="FG2"/>
-      <c r="FH2"/>
-      <c r="FI2"/>
-      <c r="FJ2"/>
-      <c r="FK2"/>
-      <c r="FL2"/>
-      <c r="FM2"/>
-      <c r="FN2"/>
-      <c r="FO2"/>
-      <c r="FP2"/>
-      <c r="FQ2"/>
-      <c r="FR2"/>
-      <c r="FS2"/>
-      <c r="FT2"/>
-      <c r="FU2"/>
-      <c r="FV2"/>
-      <c r="FW2"/>
-      <c r="FX2"/>
-      <c r="FY2"/>
-      <c r="FZ2"/>
-      <c r="GA2"/>
-      <c r="GB2"/>
-      <c r="GC2"/>
-      <c r="GD2"/>
-      <c r="GE2"/>
-      <c r="GF2"/>
-      <c r="GG2" t="n">
-        <v>13.154433043900001</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>13.246787654</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>13.0804447351</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>12.9600829445</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>12.904890953699999</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>13.097576948299999</v>
-      </c>
-      <c r="GM2"/>
-      <c r="GN2" t="n">
-        <v>12.655999999999999</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>12.562999999999999</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>12.5596583773</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>12.187000000000001</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>12.3441550426</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>12.496875781099998</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>11.997600479900001</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>11.6536534203</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>10.7457554266</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>11.461318051600001</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>12.6566257436</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>12.921566093800001</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>12.7048659637</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>12.878300064400001</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>13.2257637879</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>12.792631444300001</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>12.211503235999999</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>12.2579063496</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>12.281994595899999</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>12.531328320799998</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>12.6406269751</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>12.5533517449</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>12.2955858847</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>12.247397428</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>12.4766063631</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>12.4409056979</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>12.9115558425</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>13.0616509927</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>13.1250820318</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>12.936610607999999</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>12.698412698399999</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>12.6630365962</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>12.934937265599999</v>
-      </c>
-      <c r="HU2"/>
-      <c r="HV2"/>
-      <c r="HW2"/>
-      <c r="HX2"/>
-      <c r="HY2"/>
-      <c r="HZ2"/>
-      <c r="IA2"/>
-      <c r="IB2"/>
-      <c r="IC2"/>
-      <c r="ID2"/>
-      <c r="IE2"/>
-      <c r="IF2"/>
-      <c r="IG2"/>
-      <c r="IH2"/>
-      <c r="II2"/>
-      <c r="IJ2"/>
-      <c r="IK2"/>
-      <c r="IL2"/>
-      <c r="IM2"/>
-      <c r="IN2"/>
-      <c r="IO2"/>
-      <c r="IP2"/>
-      <c r="IQ2"/>
-      <c r="IR2"/>
-      <c r="IS2"/>
-      <c r="IT2"/>
-      <c r="IU2"/>
-      <c r="IV2"/>
-      <c r="IW2"/>
-      <c r="IX2"/>
-      <c r="IY2"/>
-      <c r="IZ2"/>
-      <c r="JA2"/>
-      <c r="JB2"/>
-      <c r="JC2"/>
-      <c r="JD2"/>
-      <c r="JE2"/>
-      <c r="JF2"/>
-      <c r="JG2"/>
-      <c r="JH2"/>
-      <c r="JI2"/>
-      <c r="JJ2"/>
-      <c r="JK2"/>
-      <c r="JL2"/>
-      <c r="JM2"/>
-      <c r="JN2"/>
-      <c r="JO2"/>
-      <c r="JP2"/>
-      <c r="JQ2"/>
-      <c r="JR2"/>
-      <c r="JS2"/>
-      <c r="JT2"/>
-      <c r="JU2"/>
-      <c r="JV2"/>
-      <c r="JW2"/>
-      <c r="JX2"/>
-      <c r="JY2"/>
-      <c r="JZ2"/>
-      <c r="KA2"/>
-      <c r="KB2"/>
-      <c r="KC2"/>
-      <c r="KD2"/>
-      <c r="KE2"/>
-      <c r="KF2"/>
-      <c r="KG2"/>
-      <c r="KH2"/>
-      <c r="KI2"/>
-      <c r="KJ2"/>
-      <c r="KK2"/>
-      <c r="KL2"/>
-      <c r="KM2"/>
-      <c r="KN2"/>
-      <c r="KO2"/>
-      <c r="KP2"/>
-      <c r="KQ2"/>
-      <c r="KR2"/>
-      <c r="KS2"/>
-      <c r="KT2"/>
-      <c r="KU2"/>
-      <c r="KV2"/>
-      <c r="KW2"/>
-      <c r="KX2"/>
-      <c r="KY2"/>
-      <c r="KZ2"/>
-      <c r="LA2"/>
-      <c r="LB2"/>
-      <c r="LC2"/>
-      <c r="LD2"/>
-      <c r="LE2"/>
-      <c r="LF2"/>
-      <c r="LG2"/>
-      <c r="LH2"/>
-      <c r="LI2"/>
-      <c r="LJ2"/>
-      <c r="LK2"/>
-      <c r="LL2"/>
-      <c r="LM2"/>
-      <c r="LN2"/>
-      <c r="LO2"/>
-      <c r="LP2"/>
-      <c r="LQ2"/>
-      <c r="LR2"/>
-      <c r="LS2"/>
-      <c r="LT2"/>
-      <c r="LU2"/>
-      <c r="LV2"/>
-      <c r="LW2"/>
-      <c r="LX2"/>
-      <c r="LY2"/>
-      <c r="LZ2"/>
-      <c r="MA2"/>
-      <c r="MB2"/>
-      <c r="MC2"/>
-      <c r="MD2"/>
-      <c r="ME2"/>
-      <c r="MF2"/>
-      <c r="MG2"/>
-      <c r="MH2"/>
-      <c r="MI2"/>
-      <c r="MJ2"/>
-      <c r="MK2"/>
-      <c r="ML2"/>
-      <c r="MM2"/>
-      <c r="MN2"/>
-      <c r="MO2"/>
-      <c r="MP2"/>
-      <c r="MQ2"/>
-      <c r="MR2"/>
-      <c r="MS2"/>
-      <c r="MT2"/>
-      <c r="MU2"/>
-      <c r="MV2"/>
-      <c r="MW2"/>
-      <c r="MX2"/>
-      <c r="MY2"/>
-      <c r="MZ2"/>
-      <c r="NA2"/>
-      <c r="NB2"/>
-      <c r="NC2"/>
-      <c r="ND2"/>
-      <c r="NE2"/>
-      <c r="NF2"/>
-      <c r="NG2"/>
-      <c r="NH2"/>
-      <c r="NI2"/>
-      <c r="NJ2"/>
-      <c r="NK2"/>
-      <c r="NL2"/>
-      <c r="NM2"/>
-      <c r="NN2"/>
-      <c r="NO2"/>
-      <c r="NP2"/>
-      <c r="NQ2"/>
-      <c r="NR2"/>
-      <c r="NS2"/>
-      <c r="NT2"/>
-      <c r="NU2"/>
-      <c r="NV2"/>
-      <c r="NW2"/>
-      <c r="NX2"/>
-      <c r="NY2"/>
-      <c r="NZ2"/>
-      <c r="OA2"/>
-      <c r="OB2"/>
-      <c r="OC2"/>
-      <c r="OD2"/>
-      <c r="OE2"/>
-      <c r="OF2"/>
-      <c r="OG2"/>
-      <c r="OH2"/>
-      <c r="OI2"/>
-      <c r="OJ2"/>
-      <c r="OK2"/>
-      <c r="OL2"/>
-      <c r="OM2"/>
-      <c r="ON2"/>
-      <c r="OO2"/>
-      <c r="OP2"/>
-      <c r="OQ2"/>
-      <c r="OR2"/>
-      <c r="OS2"/>
-      <c r="OT2"/>
-      <c r="OU2"/>
-      <c r="OV2"/>
-      <c r="OW2"/>
-      <c r="OX2"/>
-      <c r="OY2"/>
-      <c r="OZ2"/>
-      <c r="PA2"/>
-      <c r="PB2"/>
-      <c r="PC2"/>
-      <c r="PD2"/>
-      <c r="PE2"/>
-      <c r="PF2"/>
-      <c r="PG2"/>
-      <c r="PH2"/>
-      <c r="PI2"/>
-      <c r="PJ2"/>
-      <c r="PK2"/>
-      <c r="PL2"/>
-      <c r="PM2"/>
-      <c r="PN2"/>
-      <c r="PO2"/>
-      <c r="PP2"/>
-      <c r="PQ2"/>
-      <c r="PR2"/>
-      <c r="PS2"/>
-      <c r="PT2"/>
-      <c r="PU2"/>
-      <c r="PV2"/>
-      <c r="PW2"/>
-      <c r="PX2"/>
-      <c r="PY2"/>
-      <c r="PZ2"/>
-      <c r="QA2"/>
-      <c r="QB2"/>
-      <c r="QC2"/>
-      <c r="QD2"/>
-      <c r="QE2"/>
-      <c r="QF2"/>
-      <c r="QG2"/>
-      <c r="QH2"/>
-      <c r="QI2"/>
-      <c r="QJ2"/>
-      <c r="QK2"/>
-      <c r="QL2"/>
-      <c r="QM2"/>
-      <c r="QN2"/>
-      <c r="QO2"/>
-      <c r="QP2"/>
-      <c r="QQ2"/>
-      <c r="QR2"/>
-      <c r="QS2"/>
-      <c r="QT2"/>
-      <c r="QU2"/>
-      <c r="QV2"/>
-      <c r="QW2"/>
-      <c r="QX2"/>
-      <c r="QY2"/>
-      <c r="QZ2"/>
-      <c r="RA2"/>
-      <c r="RB2"/>
-      <c r="RC2"/>
-      <c r="RD2"/>
-      <c r="RE2"/>
-      <c r="RF2"/>
-      <c r="RG2"/>
-      <c r="RH2"/>
-      <c r="RI2"/>
-      <c r="RJ2"/>
-      <c r="RK2"/>
-      <c r="RL2"/>
-      <c r="RM2"/>
-      <c r="RN2"/>
-      <c r="RO2"/>
-      <c r="RP2"/>
-      <c r="RQ2"/>
-      <c r="RR2"/>
-      <c r="RS2"/>
-      <c r="RT2"/>
-      <c r="RU2"/>
-      <c r="RV2"/>
-      <c r="RW2"/>
-      <c r="RX2"/>
-      <c r="RY2"/>
-      <c r="RZ2"/>
-      <c r="SA2"/>
-      <c r="SB2"/>
-      <c r="SC2"/>
-      <c r="SD2"/>
-      <c r="SE2"/>
-      <c r="SF2"/>
-      <c r="SG2"/>
-      <c r="SH2"/>
-      <c r="SI2"/>
-      <c r="SJ2"/>
-      <c r="SK2"/>
-      <c r="SL2"/>
-      <c r="SM2"/>
-      <c r="SN2"/>
-      <c r="SO2"/>
-      <c r="SP2"/>
-      <c r="SQ2"/>
-      <c r="SR2"/>
-      <c r="SS2"/>
-      <c r="ST2"/>
-      <c r="SU2"/>
-      <c r="SV2"/>
-      <c r="SW2"/>
-      <c r="SX2"/>
-      <c r="SY2"/>
-      <c r="SZ2"/>
-      <c r="TA2"/>
-      <c r="TB2"/>
-      <c r="TC2"/>
-      <c r="TD2"/>
+      <c r="GJ2" t="s">
+        <v>535</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>536</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>537</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GN2" t="s">
+        <v>538</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>539</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>540</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>541</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>542</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>543</v>
+      </c>
+      <c r="GT2" t="s">
+        <v>544</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>545</v>
+      </c>
+      <c r="GV2" t="s">
+        <v>546</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>547</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>548</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>549</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>550</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>551</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>552</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>553</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>554</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>555</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>556</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>557</v>
+      </c>
+      <c r="HH2" t="s">
+        <v>558</v>
+      </c>
+      <c r="HI2" t="s">
+        <v>559</v>
+      </c>
+      <c r="HJ2" t="s">
+        <v>560</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>561</v>
+      </c>
+      <c r="HL2" t="s">
+        <v>562</v>
+      </c>
+      <c r="HM2" t="s">
+        <v>563</v>
+      </c>
+      <c r="HN2" t="s">
+        <v>564</v>
+      </c>
+      <c r="HO2" t="s">
+        <v>565</v>
+      </c>
+      <c r="HP2" t="s">
+        <v>566</v>
+      </c>
+      <c r="HQ2" t="s">
+        <v>567</v>
+      </c>
+      <c r="HR2" t="s">
+        <v>568</v>
+      </c>
+      <c r="HS2" t="s">
+        <v>569</v>
+      </c>
+      <c r="HT2" t="s">
+        <v>570</v>
+      </c>
+      <c r="HU2" t="s">
+        <v>571</v>
+      </c>
+      <c r="HV2" t="s">
+        <v>572</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>573</v>
+      </c>
+      <c r="HX2" t="s">
+        <v>574</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>575</v>
+      </c>
+      <c r="HZ2" t="s">
+        <v>576</v>
+      </c>
+      <c r="IA2" t="s">
+        <v>577</v>
+      </c>
+      <c r="IB2" t="s">
+        <v>578</v>
+      </c>
+      <c r="IC2" t="s">
+        <v>579</v>
+      </c>
+      <c r="ID2" t="s">
+        <v>580</v>
+      </c>
+      <c r="IE2" t="s">
+        <v>581</v>
+      </c>
+      <c r="IF2" t="s">
+        <v>582</v>
+      </c>
+      <c r="IG2" t="s">
+        <v>583</v>
+      </c>
+      <c r="IH2" t="s">
+        <v>584</v>
+      </c>
+      <c r="II2" t="s">
+        <v>585</v>
+      </c>
+      <c r="IJ2" t="s">
+        <v>586</v>
+      </c>
+      <c r="IK2" t="s">
+        <v>587</v>
+      </c>
+      <c r="IL2" t="s">
+        <v>588</v>
+      </c>
+      <c r="IM2" t="s">
+        <v>589</v>
+      </c>
+      <c r="IN2" t="s">
+        <v>590</v>
+      </c>
+      <c r="IO2" t="s">
+        <v>591</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>592</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>593</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>594</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>595</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>596</v>
+      </c>
+      <c r="IU2" t="s">
+        <v>597</v>
+      </c>
+      <c r="IV2" t="s">
+        <v>598</v>
+      </c>
+      <c r="IW2" t="s">
+        <v>599</v>
+      </c>
+      <c r="IX2" t="s">
+        <v>600</v>
+      </c>
+      <c r="IY2" t="s">
+        <v>601</v>
+      </c>
+      <c r="IZ2" t="s">
+        <v>602</v>
+      </c>
+      <c r="JA2" t="s">
+        <v>603</v>
+      </c>
+      <c r="JB2" t="s">
+        <v>604</v>
+      </c>
+      <c r="JC2" t="s">
+        <v>605</v>
+      </c>
+      <c r="JD2" t="s">
+        <v>606</v>
+      </c>
+      <c r="JE2" t="s">
+        <v>607</v>
+      </c>
+      <c r="JF2" t="s">
+        <v>608</v>
+      </c>
+      <c r="JG2" t="s">
+        <v>597</v>
+      </c>
+      <c r="JH2" t="s">
+        <v>609</v>
+      </c>
+      <c r="JI2" t="s">
+        <v>610</v>
+      </c>
+      <c r="JJ2" t="s">
+        <v>611</v>
+      </c>
+      <c r="JK2" t="s">
+        <v>612</v>
+      </c>
+      <c r="JL2" t="s">
+        <v>613</v>
+      </c>
+      <c r="JM2" t="s">
+        <v>614</v>
+      </c>
+      <c r="JN2" t="s">
+        <v>615</v>
+      </c>
+      <c r="JO2" t="s">
+        <v>616</v>
+      </c>
+      <c r="JP2" t="s">
+        <v>617</v>
+      </c>
+      <c r="JQ2" t="s">
+        <v>618</v>
+      </c>
+      <c r="JR2" t="s">
+        <v>619</v>
+      </c>
+      <c r="JS2" t="s">
+        <v>620</v>
+      </c>
+      <c r="JT2" t="s">
+        <v>621</v>
+      </c>
+      <c r="JU2" t="s">
+        <v>622</v>
+      </c>
+      <c r="JV2" t="s">
+        <v>623</v>
+      </c>
+      <c r="JW2" t="s">
+        <v>624</v>
+      </c>
+      <c r="JX2" t="s">
+        <v>625</v>
+      </c>
+      <c r="JY2" t="s">
+        <v>626</v>
+      </c>
+      <c r="JZ2" t="s">
+        <v>627</v>
+      </c>
+      <c r="KA2" t="s">
+        <v>628</v>
+      </c>
+      <c r="KB2" t="s">
+        <v>629</v>
+      </c>
+      <c r="KC2" t="s">
+        <v>630</v>
+      </c>
+      <c r="KD2" t="s">
+        <v>631</v>
+      </c>
+      <c r="KE2" t="s">
+        <v>632</v>
+      </c>
+      <c r="KF2" t="s">
+        <v>633</v>
+      </c>
+      <c r="KG2" t="s">
+        <v>634</v>
+      </c>
+      <c r="KH2" t="s">
+        <v>635</v>
+      </c>
+      <c r="KI2" t="s">
+        <v>636</v>
+      </c>
+      <c r="KJ2" t="s">
+        <v>637</v>
+      </c>
+      <c r="KK2" t="s">
+        <v>638</v>
+      </c>
+      <c r="KL2" t="s">
+        <v>639</v>
+      </c>
+      <c r="KM2" t="s">
+        <v>640</v>
+      </c>
+      <c r="KN2" t="s">
+        <v>641</v>
+      </c>
+      <c r="KO2" t="s">
+        <v>642</v>
+      </c>
+      <c r="KP2" t="s">
+        <v>643</v>
+      </c>
+      <c r="KQ2" t="s">
+        <v>644</v>
+      </c>
+      <c r="KR2" t="s">
+        <v>645</v>
+      </c>
+      <c r="KS2" t="s">
+        <v>646</v>
+      </c>
+      <c r="KT2" t="s">
+        <v>647</v>
+      </c>
+      <c r="KU2" t="s">
+        <v>648</v>
+      </c>
+      <c r="KV2" t="s">
+        <v>649</v>
+      </c>
+      <c r="KW2" t="s">
+        <v>650</v>
+      </c>
+      <c r="KX2" t="s">
+        <v>651</v>
+      </c>
+      <c r="KY2" t="s">
+        <v>652</v>
+      </c>
+      <c r="KZ2" t="s">
+        <v>653</v>
+      </c>
+      <c r="LA2" t="s">
+        <v>654</v>
+      </c>
+      <c r="LB2" t="s">
+        <v>655</v>
+      </c>
+      <c r="LC2" t="s">
+        <v>656</v>
+      </c>
+      <c r="LD2" t="s">
+        <v>657</v>
+      </c>
+      <c r="LE2" t="s">
+        <v>658</v>
+      </c>
+      <c r="LF2" t="s">
+        <v>659</v>
+      </c>
+      <c r="LG2" t="s">
+        <v>660</v>
+      </c>
+      <c r="LH2" t="s">
+        <v>661</v>
+      </c>
+      <c r="LI2" t="s">
+        <v>662</v>
+      </c>
+      <c r="LJ2" t="s">
+        <v>663</v>
+      </c>
+      <c r="LK2" t="s">
+        <v>664</v>
+      </c>
+      <c r="LL2" t="s">
+        <v>665</v>
+      </c>
+      <c r="LM2" t="s">
+        <v>666</v>
+      </c>
+      <c r="LN2" t="s">
+        <v>667</v>
+      </c>
+      <c r="LO2" t="s">
+        <v>668</v>
+      </c>
+      <c r="LP2" t="s">
+        <v>669</v>
+      </c>
+      <c r="LQ2" t="s">
+        <v>670</v>
+      </c>
+      <c r="LR2" t="s">
+        <v>671</v>
+      </c>
+      <c r="LS2" t="s">
+        <v>672</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>673</v>
+      </c>
+      <c r="LU2" t="s">
+        <v>674</v>
+      </c>
+      <c r="LV2" t="s">
+        <v>675</v>
+      </c>
+      <c r="LW2" t="s">
+        <v>676</v>
+      </c>
+      <c r="LX2" t="s">
+        <v>677</v>
+      </c>
+      <c r="LY2" t="s">
+        <v>678</v>
+      </c>
+      <c r="LZ2" t="s">
+        <v>679</v>
+      </c>
+      <c r="MA2" t="s">
+        <v>680</v>
+      </c>
+      <c r="MB2" t="s">
+        <v>681</v>
+      </c>
+      <c r="MC2" t="s">
+        <v>682</v>
+      </c>
+      <c r="MD2" t="s">
+        <v>670</v>
+      </c>
+      <c r="ME2" t="s">
+        <v>683</v>
+      </c>
+      <c r="MF2" t="s">
+        <v>684</v>
+      </c>
+      <c r="MG2" t="s">
+        <v>685</v>
+      </c>
+      <c r="MH2" t="s">
+        <v>685</v>
+      </c>
+      <c r="MI2" t="s">
+        <v>686</v>
+      </c>
+      <c r="MJ2" t="s">
+        <v>687</v>
+      </c>
+      <c r="MK2" t="s">
+        <v>688</v>
+      </c>
+      <c r="ML2" t="s">
+        <v>689</v>
+      </c>
+      <c r="MM2" t="s">
+        <v>686</v>
+      </c>
+      <c r="MN2" t="s">
+        <v>685</v>
+      </c>
+      <c r="MO2" t="s">
+        <v>681</v>
+      </c>
+      <c r="MP2" t="s">
+        <v>690</v>
+      </c>
+      <c r="MQ2" t="s">
+        <v>675</v>
+      </c>
+      <c r="MR2" t="s">
+        <v>678</v>
+      </c>
+      <c r="MS2" t="s">
+        <v>685</v>
+      </c>
+      <c r="MT2" t="s">
+        <v>691</v>
+      </c>
+      <c r="MU2" t="s">
+        <v>692</v>
+      </c>
+      <c r="MV2" t="s">
+        <v>693</v>
+      </c>
+      <c r="MW2" t="s">
+        <v>687</v>
+      </c>
+      <c r="MX2" t="s">
+        <v>694</v>
+      </c>
+      <c r="MY2" t="s">
+        <v>695</v>
+      </c>
+      <c r="MZ2" t="s">
+        <v>696</v>
+      </c>
+      <c r="NA2" t="s">
+        <v>697</v>
+      </c>
+      <c r="NB2" t="s">
+        <v>698</v>
+      </c>
+      <c r="NC2" t="s">
+        <v>694</v>
+      </c>
+      <c r="ND2" t="s">
+        <v>699</v>
+      </c>
+      <c r="NE2" t="s">
+        <v>700</v>
+      </c>
+      <c r="NF2" t="s">
+        <v>701</v>
+      </c>
+      <c r="NG2" t="s">
+        <v>702</v>
+      </c>
+      <c r="NH2" t="s">
+        <v>702</v>
+      </c>
+      <c r="NI2" t="s">
+        <v>703</v>
+      </c>
+      <c r="NJ2" t="s">
+        <v>701</v>
+      </c>
+      <c r="NK2" t="s">
+        <v>704</v>
+      </c>
+      <c r="NL2" t="s">
+        <v>705</v>
+      </c>
+      <c r="NM2" t="s">
+        <v>706</v>
+      </c>
+      <c r="NN2" t="s">
+        <v>707</v>
+      </c>
+      <c r="NO2" t="s">
+        <v>708</v>
+      </c>
+      <c r="NP2" t="s">
+        <v>709</v>
+      </c>
+      <c r="NQ2" t="s">
+        <v>708</v>
+      </c>
+      <c r="NR2" t="s">
+        <v>710</v>
+      </c>
+      <c r="NS2" t="s">
+        <v>711</v>
+      </c>
+      <c r="NT2" t="s">
+        <v>712</v>
+      </c>
+      <c r="NU2" t="s">
+        <v>713</v>
+      </c>
+      <c r="NV2" t="s">
+        <v>714</v>
+      </c>
+      <c r="NW2" t="s">
+        <v>715</v>
+      </c>
+      <c r="NX2" t="s">
+        <v>711</v>
+      </c>
+      <c r="NY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ON2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ST2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="TA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="TB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="TC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="TD2" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B3" t="n">
-        <v>878.0</v>
-      </c>
+      <c r="A3"/>
+      <c r="B3"/>
       <c r="C3"/>
-      <c r="D3" t="s">
-        <v>532</v>
-      </c>
-      <c r="E3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G3" t="s">
-        <v>533</v>
-      </c>
-      <c r="H3" t="s">
-        <v>534</v>
-      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -4145,66 +5649,26 @@
       <c r="HR3"/>
       <c r="HS3"/>
       <c r="HT3"/>
-      <c r="HU3" t="n">
-        <v>12.8468653649</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>12.8122998078</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>13.133701077000001</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>12.9634430905</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>12.7665007022</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>12.7291242363</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>13.0225289751</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>13.0667712008</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>12.761613067899999</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>12.5250501002</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>12.4409056979</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>12.690355329900001</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>12.823800974600001</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>12.8617363344</v>
-      </c>
-      <c r="II3" t="n">
-        <v>13.3636242149</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>13.250298131700001</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>13.010668748399999</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>12.792631444300001</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>12.743723716099998</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>12.879958784100001</v>
-      </c>
+      <c r="HU3"/>
+      <c r="HV3"/>
+      <c r="HW3"/>
+      <c r="HX3"/>
+      <c r="HY3"/>
+      <c r="HZ3"/>
+      <c r="IA3"/>
+      <c r="IB3"/>
+      <c r="IC3"/>
+      <c r="ID3"/>
+      <c r="IE3"/>
+      <c r="IF3"/>
+      <c r="IG3"/>
+      <c r="IH3"/>
+      <c r="II3"/>
+      <c r="IJ3"/>
+      <c r="IK3"/>
+      <c r="IL3"/>
+      <c r="IM3"/>
+      <c r="IN3"/>
       <c r="IO3"/>
       <c r="IP3"/>
       <c r="IQ3"/>
@@ -4483,28 +5947,14 @@
       <c r="TD3"/>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>526</v>
-      </c>
-      <c r="B4" t="n">
-        <v>879.0</v>
-      </c>
+      <c r="A4"/>
+      <c r="B4"/>
       <c r="C4"/>
-      <c r="D4" t="s">
-        <v>532</v>
-      </c>
-      <c r="E4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F4" t="s">
-        <v>267</v>
-      </c>
-      <c r="G4" t="s">
-        <v>533</v>
-      </c>
-      <c r="H4" t="s">
-        <v>534</v>
-      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
@@ -4745,66 +6195,26 @@
       <c r="IL4"/>
       <c r="IM4"/>
       <c r="IN4"/>
-      <c r="IO4" t="n">
-        <v>12.813941568399999</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>12.634238787100001</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>12.611930886600002</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>12.6151129053</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>12.5928724342</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>12.7991808524</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>13.365410318099999</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>13.1440588854</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>13.042911177799999</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>12.8982329421</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>12.596044841900001</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>12.589701624100002</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>12.532898859500001</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>12.484394506900001</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>12.573871495</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>12.918227619200001</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>13.3886731825</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>13.5888028265</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>13.365410318099999</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>13.8888888889</v>
-      </c>
+      <c r="IO4"/>
+      <c r="IP4"/>
+      <c r="IQ4"/>
+      <c r="IR4"/>
+      <c r="IS4"/>
+      <c r="IT4"/>
+      <c r="IU4"/>
+      <c r="IV4"/>
+      <c r="IW4"/>
+      <c r="IX4"/>
+      <c r="IY4"/>
+      <c r="IZ4"/>
+      <c r="JA4"/>
+      <c r="JB4"/>
+      <c r="JC4"/>
+      <c r="JD4"/>
+      <c r="JE4"/>
+      <c r="JF4"/>
+      <c r="JG4"/>
+      <c r="JH4"/>
       <c r="JI4"/>
       <c r="JJ4"/>
       <c r="JK4"/>
@@ -5063,28 +6473,14 @@
       <c r="TD4"/>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>527</v>
-      </c>
-      <c r="B5" t="n">
-        <v>880.0</v>
-      </c>
+      <c r="A5"/>
+      <c r="B5"/>
       <c r="C5"/>
-      <c r="D5" t="s">
-        <v>532</v>
-      </c>
-      <c r="E5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F5" t="s">
-        <v>287</v>
-      </c>
-      <c r="G5" t="s">
-        <v>533</v>
-      </c>
-      <c r="H5" t="s">
-        <v>534</v>
-      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
@@ -5345,96 +6741,36 @@
       <c r="JF5"/>
       <c r="JG5"/>
       <c r="JH5"/>
-      <c r="JI5" t="n">
-        <v>12.5015626953</v>
-      </c>
-      <c r="JJ5" t="n">
-        <v>12.155099064100002</v>
-      </c>
-      <c r="JK5" t="n">
-        <v>12.9433083096</v>
-      </c>
-      <c r="JL5" t="n">
-        <v>12.8303823454</v>
-      </c>
-      <c r="JM5" t="n">
-        <v>13.1371518655</v>
-      </c>
-      <c r="JN5" t="n">
-        <v>13.0055924047</v>
-      </c>
-      <c r="JO5" t="n">
-        <v>13.1406044678</v>
-      </c>
-      <c r="JP5" t="n">
-        <v>13.3600534402</v>
-      </c>
-      <c r="JQ5" t="n">
-        <v>12.836970475</v>
-      </c>
-      <c r="JR5" t="n">
-        <v>12.5234815279</v>
-      </c>
-      <c r="JS5" t="n">
-        <v>12.4595066035</v>
-      </c>
-      <c r="JT5" t="n">
-        <v>12.4564025909</v>
-      </c>
-      <c r="JU5" t="n">
-        <v>12.434717731900001</v>
-      </c>
-      <c r="JV5" t="n">
-        <v>12.9920748344</v>
-      </c>
-      <c r="JW5" t="n">
-        <v>13.024225058599999</v>
-      </c>
-      <c r="JX5" t="n">
-        <v>12.8567755207</v>
-      </c>
-      <c r="JY5" t="n">
-        <v>12.5659713496</v>
-      </c>
-      <c r="JZ5" t="n">
-        <v>12.2189638319</v>
-      </c>
-      <c r="KA5" t="n">
-        <v>12.745347948</v>
-      </c>
-      <c r="KB5" t="n">
-        <v>13.1873928524</v>
-      </c>
-      <c r="KC5" t="n">
-        <v>12.95001295</v>
-      </c>
-      <c r="KD5" t="n">
-        <v>12.3977188197</v>
-      </c>
-      <c r="KE5" t="n">
-        <v>12.1285627653</v>
-      </c>
-      <c r="KF5" t="n">
-        <v>12.055455093399999</v>
-      </c>
-      <c r="KG5" t="n">
-        <v>12.835322808399999</v>
-      </c>
-      <c r="KH5" t="n">
-        <v>13.217023526300002</v>
-      </c>
-      <c r="KI5" t="n">
-        <v>12.9735339907</v>
-      </c>
-      <c r="KJ5" t="n">
-        <v>13.0191381331</v>
-      </c>
-      <c r="KK5" t="n">
-        <v>13.1423314496</v>
-      </c>
-      <c r="KL5" t="n">
-        <v>13.2205182443</v>
-      </c>
+      <c r="JI5"/>
+      <c r="JJ5"/>
+      <c r="JK5"/>
+      <c r="JL5"/>
+      <c r="JM5"/>
+      <c r="JN5"/>
+      <c r="JO5"/>
+      <c r="JP5"/>
+      <c r="JQ5"/>
+      <c r="JR5"/>
+      <c r="JS5"/>
+      <c r="JT5"/>
+      <c r="JU5"/>
+      <c r="JV5"/>
+      <c r="JW5"/>
+      <c r="JX5"/>
+      <c r="JY5"/>
+      <c r="JZ5"/>
+      <c r="KA5"/>
+      <c r="KB5"/>
+      <c r="KC5"/>
+      <c r="KD5"/>
+      <c r="KE5"/>
+      <c r="KF5"/>
+      <c r="KG5"/>
+      <c r="KH5"/>
+      <c r="KI5"/>
+      <c r="KJ5"/>
+      <c r="KK5"/>
+      <c r="KL5"/>
       <c r="KM5"/>
       <c r="KN5"/>
       <c r="KO5"/>
@@ -5663,28 +6999,14 @@
       <c r="TD5"/>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>528</v>
-      </c>
-      <c r="B6" t="n">
-        <v>881.0</v>
-      </c>
+      <c r="A6"/>
+      <c r="B6"/>
       <c r="C6"/>
-      <c r="D6" t="s">
-        <v>532</v>
-      </c>
-      <c r="E6" t="s">
-        <v>288</v>
-      </c>
-      <c r="F6" t="s">
-        <v>307</v>
-      </c>
-      <c r="G6" t="s">
-        <v>533</v>
-      </c>
-      <c r="H6" t="s">
-        <v>534</v>
-      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
@@ -5975,36 +7297,16 @@
       <c r="KJ6"/>
       <c r="KK6"/>
       <c r="KL6"/>
-      <c r="KM6" t="n">
-        <v>13.2643586683</v>
-      </c>
-      <c r="KN6" t="n">
-        <v>13.3564845733</v>
-      </c>
-      <c r="KO6" t="n">
-        <v>12.9148908692</v>
-      </c>
-      <c r="KP6" t="n">
-        <v>13.5777325187</v>
-      </c>
-      <c r="KQ6" t="n">
-        <v>13.358268768399999</v>
-      </c>
-      <c r="KR6" t="n">
-        <v>12.659830358299999</v>
-      </c>
-      <c r="KS6" t="n">
-        <v>12.685525815</v>
-      </c>
-      <c r="KT6" t="n">
-        <v>13.719303059400001</v>
-      </c>
-      <c r="KU6" t="n">
-        <v>14.132278123199999</v>
-      </c>
-      <c r="KV6" t="n">
-        <v>13.0667712008</v>
-      </c>
+      <c r="KM6"/>
+      <c r="KN6"/>
+      <c r="KO6"/>
+      <c r="KP6"/>
+      <c r="KQ6"/>
+      <c r="KR6"/>
+      <c r="KS6"/>
+      <c r="KT6"/>
+      <c r="KU6"/>
+      <c r="KV6"/>
       <c r="KW6"/>
       <c r="KX6"/>
       <c r="KY6"/>
@@ -6223,28 +7525,14 @@
       <c r="TD6"/>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>529</v>
-      </c>
-      <c r="B7" t="n">
-        <v>882.0</v>
-      </c>
+      <c r="A7"/>
+      <c r="B7"/>
       <c r="C7"/>
-      <c r="D7" t="s">
-        <v>532</v>
-      </c>
-      <c r="E7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G7" t="s">
-        <v>533</v>
-      </c>
-      <c r="H7" t="s">
-        <v>534</v>
-      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -6545,66 +7833,26 @@
       <c r="KT7"/>
       <c r="KU7"/>
       <c r="KV7"/>
-      <c r="KW7" t="n">
-        <v>11.9189511323</v>
-      </c>
-      <c r="KX7" t="n">
-        <v>11.7785630153</v>
-      </c>
-      <c r="KY7" t="n">
-        <v>12.33349778</v>
-      </c>
-      <c r="KZ7" t="n">
-        <v>12.836970475</v>
-      </c>
-      <c r="LA7" t="n">
-        <v>13.2961042415</v>
-      </c>
-      <c r="LB7" t="n">
-        <v>13.0872922392</v>
-      </c>
-      <c r="LC7" t="n">
-        <v>12.8024580719</v>
-      </c>
-      <c r="LD7" t="n">
-        <v>12.9600829445</v>
-      </c>
-      <c r="LE7" t="n">
-        <v>12.8122998078</v>
-      </c>
-      <c r="LF7" t="n">
-        <v>11.184431271700001</v>
-      </c>
-      <c r="LG7" t="n">
-        <v>11.272686281099999</v>
-      </c>
-      <c r="LH7" t="n">
-        <v>9.34579439252</v>
-      </c>
-      <c r="LI7" t="n">
-        <v>10.380982040900001</v>
-      </c>
-      <c r="LJ7" t="n">
-        <v>10.3626943005</v>
-      </c>
-      <c r="LK7" t="n">
-        <v>11.2790435371</v>
-      </c>
-      <c r="LL7" t="n">
-        <v>11.8301194842</v>
-      </c>
-      <c r="LM7" t="n">
-        <v>13.4698275862</v>
-      </c>
-      <c r="LN7" t="n">
-        <v>13.2996409097</v>
-      </c>
-      <c r="LO7" t="n">
-        <v>12.8501670522</v>
-      </c>
-      <c r="LP7" t="n">
-        <v>13.170025022999999</v>
-      </c>
+      <c r="KW7"/>
+      <c r="KX7"/>
+      <c r="KY7"/>
+      <c r="KZ7"/>
+      <c r="LA7"/>
+      <c r="LB7"/>
+      <c r="LC7"/>
+      <c r="LD7"/>
+      <c r="LE7"/>
+      <c r="LF7"/>
+      <c r="LG7"/>
+      <c r="LH7"/>
+      <c r="LI7"/>
+      <c r="LJ7"/>
+      <c r="LK7"/>
+      <c r="LL7"/>
+      <c r="LM7"/>
+      <c r="LN7"/>
+      <c r="LO7"/>
+      <c r="LP7"/>
       <c r="LQ7"/>
       <c r="LR7"/>
       <c r="LS7"/>
@@ -6803,28 +8051,14 @@
       <c r="TD7"/>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>530</v>
-      </c>
-      <c r="B8" t="n">
-        <v>883.0</v>
-      </c>
+      <c r="A8"/>
+      <c r="B8"/>
       <c r="C8"/>
-      <c r="D8" t="s">
-        <v>532</v>
-      </c>
-      <c r="E8" t="s">
-        <v>328</v>
-      </c>
-      <c r="F8" t="s">
-        <v>367</v>
-      </c>
-      <c r="G8" t="s">
-        <v>533</v>
-      </c>
-      <c r="H8" t="s">
-        <v>534</v>
-      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -7145,126 +8379,46 @@
       <c r="LN8"/>
       <c r="LO8"/>
       <c r="LP8"/>
-      <c r="LQ8" t="n">
-        <v>13.8696255201</v>
-      </c>
-      <c r="LR8" t="n">
-        <v>14.3204926249</v>
-      </c>
-      <c r="LS8" t="n">
-        <v>14.110342881300001</v>
-      </c>
-      <c r="LT8" t="n">
-        <v>14.2694063927</v>
-      </c>
-      <c r="LU8" t="n">
-        <v>13.9899272524</v>
-      </c>
-      <c r="LV8" t="n">
-        <v>13.8408304498</v>
-      </c>
-      <c r="LW8" t="n">
-        <v>14.1302811926</v>
-      </c>
-      <c r="LX8" t="n">
-        <v>13.919821826300002</v>
-      </c>
-      <c r="LY8" t="n">
-        <v>13.8007176373</v>
-      </c>
-      <c r="LZ8" t="n">
-        <v>13.900472616099998</v>
-      </c>
-      <c r="MA8" t="n">
-        <v>14.0193466984</v>
-      </c>
-      <c r="MB8" t="n">
-        <v>13.749484394300001</v>
-      </c>
-      <c r="MC8" t="n">
-        <v>13.950892857100001</v>
-      </c>
-      <c r="MD8" t="n">
-        <v>13.8696255201</v>
-      </c>
-      <c r="ME8" t="n">
-        <v>13.7005069188</v>
-      </c>
-      <c r="MF8" t="n">
-        <v>13.7608366589</v>
-      </c>
-      <c r="MG8" t="n">
-        <v>13.8102472034</v>
-      </c>
-      <c r="MH8" t="n">
-        <v>13.8102472034</v>
-      </c>
-      <c r="MI8" t="n">
-        <v>13.719303059400001</v>
-      </c>
-      <c r="MJ8" t="n">
-        <v>13.6202669572</v>
-      </c>
-      <c r="MK8" t="n">
-        <v>13.529968881099999</v>
-      </c>
-      <c r="ML8" t="n">
-        <v>13.599891200899998</v>
-      </c>
-      <c r="MM8" t="n">
-        <v>13.719303059400001</v>
-      </c>
-      <c r="MN8" t="n">
-        <v>13.8102472034</v>
-      </c>
-      <c r="MO8" t="n">
-        <v>13.749484394300001</v>
-      </c>
-      <c r="MP8" t="n">
-        <v>13.86001386</v>
-      </c>
-      <c r="MQ8" t="n">
-        <v>13.8408304498</v>
-      </c>
-      <c r="MR8" t="n">
-        <v>13.8007176373</v>
-      </c>
-      <c r="MS8" t="n">
-        <v>13.8102472034</v>
-      </c>
-      <c r="MT8" t="n">
-        <v>13.789299503599999</v>
-      </c>
-      <c r="MU8" t="n">
-        <v>13.7098985468</v>
-      </c>
-      <c r="MV8" t="n">
-        <v>13.5098621994</v>
-      </c>
-      <c r="MW8" t="n">
-        <v>13.6202669572</v>
-      </c>
-      <c r="MX8" t="n">
-        <v>13.4408602151</v>
-      </c>
-      <c r="MY8" t="n">
-        <v>13.349352556400001</v>
-      </c>
-      <c r="MZ8" t="n">
-        <v>13.4898151895</v>
-      </c>
-      <c r="NA8" t="n">
-        <v>13.5906496331</v>
-      </c>
-      <c r="NB8" t="n">
-        <v>13.5391280802</v>
-      </c>
-      <c r="NC8" t="n">
-        <v>13.4408602151</v>
-      </c>
-      <c r="ND8" t="n">
-        <v>13.3404482391</v>
-      </c>
+      <c r="LQ8"/>
+      <c r="LR8"/>
+      <c r="LS8"/>
+      <c r="LT8"/>
+      <c r="LU8"/>
+      <c r="LV8"/>
+      <c r="LW8"/>
+      <c r="LX8"/>
+      <c r="LY8"/>
+      <c r="LZ8"/>
+      <c r="MA8"/>
+      <c r="MB8"/>
+      <c r="MC8"/>
+      <c r="MD8"/>
+      <c r="ME8"/>
+      <c r="MF8"/>
+      <c r="MG8"/>
+      <c r="MH8"/>
+      <c r="MI8"/>
+      <c r="MJ8"/>
+      <c r="MK8"/>
+      <c r="ML8"/>
+      <c r="MM8"/>
+      <c r="MN8"/>
+      <c r="MO8"/>
+      <c r="MP8"/>
+      <c r="MQ8"/>
+      <c r="MR8"/>
+      <c r="MS8"/>
+      <c r="MT8"/>
+      <c r="MU8"/>
+      <c r="MV8"/>
+      <c r="MW8"/>
+      <c r="MX8"/>
+      <c r="MY8"/>
+      <c r="MZ8"/>
+      <c r="NA8"/>
+      <c r="NB8"/>
+      <c r="NC8"/>
+      <c r="ND8"/>
       <c r="NE8"/>
       <c r="NF8"/>
       <c r="NG8"/>
@@ -7423,28 +8577,14 @@
       <c r="TD8"/>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>531</v>
-      </c>
-      <c r="B9" t="n">
-        <v>884.0</v>
-      </c>
+      <c r="A9"/>
+      <c r="B9"/>
       <c r="C9"/>
-      <c r="D9" t="s">
-        <v>532</v>
-      </c>
-      <c r="E9" t="s">
-        <v>368</v>
-      </c>
-      <c r="F9" t="s">
-        <v>387</v>
-      </c>
-      <c r="G9" t="s">
-        <v>533</v>
-      </c>
-      <c r="H9" t="s">
-        <v>534</v>
-      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -7805,66 +8945,26 @@
       <c r="NB9"/>
       <c r="NC9"/>
       <c r="ND9"/>
-      <c r="NE9" t="n">
-        <v>13.3600534402</v>
-      </c>
-      <c r="NF9" t="n">
-        <v>13.5795763172</v>
-      </c>
-      <c r="NG9" t="n">
-        <v>13.5007425408</v>
-      </c>
-      <c r="NH9" t="n">
-        <v>13.5007425408</v>
-      </c>
-      <c r="NI9" t="n">
-        <v>13.559322033900001</v>
-      </c>
-      <c r="NJ9" t="n">
-        <v>13.5795763172</v>
-      </c>
-      <c r="NK9" t="n">
-        <v>13.599891200899998</v>
-      </c>
-      <c r="NL9" t="n">
-        <v>13.5906496331</v>
-      </c>
-      <c r="NM9" t="n">
-        <v>13.6407038603</v>
-      </c>
-      <c r="NN9" t="n">
-        <v>13.7005069188</v>
-      </c>
-      <c r="NO9" t="n">
-        <v>13.670539986300001</v>
-      </c>
-      <c r="NP9" t="n">
-        <v>13.65001365</v>
-      </c>
-      <c r="NQ9" t="n">
-        <v>13.670539986300001</v>
-      </c>
-      <c r="NR9" t="n">
-        <v>20.5212394829</v>
-      </c>
-      <c r="NS9" t="n">
-        <v>20.6100577082</v>
-      </c>
-      <c r="NT9" t="n">
-        <v>20.7210940738</v>
-      </c>
-      <c r="NU9" t="n">
-        <v>20.644095788599998</v>
-      </c>
-      <c r="NV9" t="n">
-        <v>20.6398348813</v>
-      </c>
-      <c r="NW9" t="n">
-        <v>20.627062706300002</v>
-      </c>
-      <c r="NX9" t="n">
-        <v>20.6100577082</v>
-      </c>
+      <c r="NE9"/>
+      <c r="NF9"/>
+      <c r="NG9"/>
+      <c r="NH9"/>
+      <c r="NI9"/>
+      <c r="NJ9"/>
+      <c r="NK9"/>
+      <c r="NL9"/>
+      <c r="NM9"/>
+      <c r="NN9"/>
+      <c r="NO9"/>
+      <c r="NP9"/>
+      <c r="NQ9"/>
+      <c r="NR9"/>
+      <c r="NS9"/>
+      <c r="NT9"/>
+      <c r="NU9"/>
+      <c r="NV9"/>
+      <c r="NW9"/>
+      <c r="NX9"/>
       <c r="NY9"/>
       <c r="NZ9"/>
       <c r="OA9"/>
@@ -8017,68 +9117,4081 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>535</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>536</v>
+        <v>716</v>
       </c>
       <c r="C1" t="s">
-        <v>537</v>
+        <v>717</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>718</v>
+      </c>
+      <c r="F1" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>538</v>
-      </c>
-      <c r="B2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C2" t="s">
-        <v>544</v>
+        <v>720</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>721</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13.154433</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>539</v>
-      </c>
-      <c r="B3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C3" t="s">
-        <v>545</v>
+        <v>720</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>721</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1681.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>13.246788</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>540</v>
-      </c>
-      <c r="B4" t="s">
-        <v>534</v>
-      </c>
-      <c r="C4" t="s">
-        <v>546</v>
+        <v>720</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>721</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1682.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13.080445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>541</v>
-      </c>
-      <c r="B5" t="s">
-        <v>534</v>
-      </c>
-      <c r="C5" t="s">
-        <v>547</v>
+        <v>720</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>721</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1683.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12.960083</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>542</v>
+        <v>720</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>721</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1684.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12.904891</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>720</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>721</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1685.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>13.097577</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>720</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>721</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1687.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12.656</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>720</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>721</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1688.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12.563</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>720</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>721</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1689.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12.559658</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>720</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>721</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1690.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12.187</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>720</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>721</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1691.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12.344155</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>720</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>721</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1692.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12.496876</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>720</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>721</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1693.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>11.9976</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>720</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>721</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1694.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>11.653653</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>720</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>721</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1695.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10.745755</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>720</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>721</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1696.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11.461318</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>720</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>721</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1697.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12.656626</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>720</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>721</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1698.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>12.921566</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>720</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>721</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1699.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>12.704866</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>720</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>721</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1700.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>12.8783</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>720</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>721</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1701.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>13.225764</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>720</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>721</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1702.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>12.792631</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>720</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>721</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1703.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>12.211503</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>720</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>721</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1704.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>12.257906</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>720</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>721</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1705.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>12.281995</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>720</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>721</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1706.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>12.531328</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>720</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>721</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1707.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>12.640627</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>720</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>721</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1708.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>12.553352</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>720</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>721</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1709.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>12.295586</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>720</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>721</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1710.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>12.247397</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>720</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>721</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1711.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>12.476606</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>720</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1712.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>12.440906</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>720</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>721</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1713.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>12.911556</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>720</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>721</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1714.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>13.061651</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>720</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>721</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1715.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>13.125082</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>720</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>721</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1716.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>12.936611</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>720</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>721</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1717.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>12.698413</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>720</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>721</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1718.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>12.663037</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>720</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>721</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>12.934937</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>720</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1720.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>721</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1720.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>12.846865</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>720</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1720.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>721</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1721.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>12.8123</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>720</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1720.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>721</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1722.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>13.133701</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>720</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1720.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>721</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1723.0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>12.963443</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>720</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1720.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>721</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1724.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>12.766501</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>720</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1720.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>721</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1725.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>12.729124</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>720</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1720.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>721</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1726.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>13.022529</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>720</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1720.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>721</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1727.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>13.066771</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>720</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1720.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>721</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1728.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>12.761613</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>720</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1720.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>721</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1729.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>12.52505</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>720</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1720.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>721</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1730.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>12.440906</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>720</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1720.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>721</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1731.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>12.690355</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>720</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1720.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>721</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1732.0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>12.823801</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>720</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1720.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>721</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1733.0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>12.861736</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>720</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1720.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>721</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1734.0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>13.363624</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>720</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1720.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>721</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1735.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>13.250298</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>720</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1720.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>721</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1736.0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>13.010669</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>720</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1720.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>721</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1737.0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>12.792631</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>720</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1720.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>721</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1738.0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>12.743724</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>720</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1720.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>721</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>12.879959</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>720</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1759.0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>721</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>12.813942</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>720</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1759.0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>721</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1741.0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>12.634239</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>720</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1759.0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>721</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1742.0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>12.611931</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>720</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1759.0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>721</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1743.0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>12.615113</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>720</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1759.0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>721</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1744.0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>12.592872</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>720</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1759.0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>721</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1745.0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>12.799181</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>720</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1759.0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>721</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1746.0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>13.36541</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>720</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1759.0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>721</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1747.0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>13.144059</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>720</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1759.0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>721</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1748.0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>13.042911</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>720</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1759.0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>721</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1749.0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>12.898233</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>720</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1759.0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>721</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1750.0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>12.596045</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>720</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1759.0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>721</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1751.0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>12.589702</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>720</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1759.0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>721</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1752.0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>12.532899</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>720</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1759.0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>721</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1753.0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>12.484395</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>720</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1759.0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>721</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1754.0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>12.573871</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>720</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1759.0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>721</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1755.0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>12.918228</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>720</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1759.0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>721</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1756.0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>13.388673</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>720</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1759.0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>721</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1757.0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>13.588803</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>720</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1759.0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>721</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1758.0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>13.36541</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>720</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1759.0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>721</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1759.0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>13.888889</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>720</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>721</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>12.501563</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>720</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>721</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1761.0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>12.155099</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>720</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>721</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1762.0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>12.943308</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>720</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>721</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1763.0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>12.830382</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>720</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>721</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1764.0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>13.137152</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>720</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>721</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1765.0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>13.005592</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>720</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>721</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1766.0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>13.140604</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>720</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>721</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1767.0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>13.360053</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>720</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>721</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1768.0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>12.83697</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>720</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>721</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1769.0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>12.523482</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>720</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>721</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1770.0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>12.459507</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>720</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>721</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1771.0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>12.456403</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>720</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>721</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1772.0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>12.434718</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>720</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>721</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1773.0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>12.992075</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>720</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>721</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1774.0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>13.024225</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>720</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>721</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1775.0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>12.856776</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>720</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>721</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1776.0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>12.565971</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>720</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>721</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1777.0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>12.218964</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>720</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>721</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1778.0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>12.745348</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>720</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>721</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>13.187393</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>720</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>721</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1780.0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>12.950013</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>720</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D102" t="s">
+        <v>721</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1781.0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>12.397719</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>720</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D103" t="s">
+        <v>721</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1782.0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>12.128563</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>720</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D104" t="s">
+        <v>721</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1783.0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>12.055455</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>720</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D105" t="s">
+        <v>721</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1784.0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>12.835323</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>720</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>721</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1785.0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>13.217024</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>720</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D107" t="s">
+        <v>721</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1786.0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>12.973534</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>720</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D108" t="s">
+        <v>721</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1787.0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>13.019138</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>720</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D109" t="s">
+        <v>721</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1788.0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>13.142331</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>720</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="D110" t="s">
+        <v>721</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1789.0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>13.220518</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>720</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1780.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="D111" t="s">
+        <v>721</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1790.0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>13.264359</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>720</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1780.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="D112" t="s">
+        <v>721</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1791.0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>13.356485</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>720</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1780.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="D113" t="s">
+        <v>721</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1792.0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>12.914891</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>720</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1780.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="D114" t="s">
+        <v>721</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1793.0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>13.577733</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>720</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1780.0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="D115" t="s">
+        <v>721</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1794.0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>13.358269</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>720</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1780.0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="D116" t="s">
+        <v>721</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1795.0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>12.65983</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>720</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1780.0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="D117" t="s">
+        <v>721</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1796.0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>12.685526</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>720</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1780.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="D118" t="s">
+        <v>721</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1797.0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>13.719303</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>720</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1780.0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="D119" t="s">
+        <v>721</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1798.0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>14.132278</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>720</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1780.0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="D120" t="s">
+        <v>721</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>13.066771</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>720</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D121" t="s">
+        <v>721</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>11.918951</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>720</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D122" t="s">
+        <v>721</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1801.0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>11.778563</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>720</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D123" t="s">
+        <v>721</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1802.0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>12.333498</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>720</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D124" t="s">
+        <v>721</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1803.0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>12.83697</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>720</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D125" t="s">
+        <v>721</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1804.0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>13.296104</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>720</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D126" t="s">
+        <v>721</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1805.0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>13.087292</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>720</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D127" t="s">
+        <v>721</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1806.0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>12.802458</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>720</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D128" t="s">
+        <v>721</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1807.0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>12.960083</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>720</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D129" t="s">
+        <v>721</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1808.0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>12.8123</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>720</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D130" t="s">
+        <v>721</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1809.0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>11.184431</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>720</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D131" t="s">
+        <v>721</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1810.0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>11.272686</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>720</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D132" t="s">
+        <v>721</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1811.0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>9.345794</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>720</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D133" t="s">
+        <v>721</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1812.0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>10.380982</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>720</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D134" t="s">
+        <v>721</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1813.0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>10.362694</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>720</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D135" t="s">
+        <v>721</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1814.0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>11.279044</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>720</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D136" t="s">
+        <v>721</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1815.0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>11.830119</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>720</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D137" t="s">
+        <v>721</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1816.0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>13.469828</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>720</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D138" t="s">
+        <v>721</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1817.0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>13.299641</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>720</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D139" t="s">
+        <v>721</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1818.0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>12.850167</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>720</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D140" t="s">
+        <v>721</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>13.170025</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>720</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D141" t="s">
+        <v>721</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>13.869626</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>720</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D142" t="s">
+        <v>721</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1821.0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>14.320493</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>720</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D143" t="s">
+        <v>721</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1822.0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>14.110343</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>720</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D144" t="s">
+        <v>721</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1823.0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>14.269406</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>720</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D145" t="s">
+        <v>721</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1824.0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>13.989927</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>720</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D146" t="s">
+        <v>721</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1825.0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>13.84083</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>720</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D147" t="s">
+        <v>721</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1826.0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>14.130281</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>720</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D148" t="s">
+        <v>721</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1827.0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>13.919822</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>720</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D149" t="s">
+        <v>721</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1828.0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>13.800718</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>720</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D150" t="s">
+        <v>721</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1829.0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>13.900473</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>720</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D151" t="s">
+        <v>721</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1830.0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>14.019347</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>720</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D152" t="s">
+        <v>721</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1831.0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>13.749484</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>720</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D153" t="s">
+        <v>721</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1832.0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>13.950893</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>720</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D154" t="s">
+        <v>721</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1833.0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>13.869626</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>720</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D155" t="s">
+        <v>721</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1834.0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>13.700507</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>720</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D156" t="s">
+        <v>721</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1835.0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>13.760837</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>720</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D157" t="s">
+        <v>721</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1836.0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>13.810247</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>720</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D158" t="s">
+        <v>721</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1837.0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>13.810247</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>720</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D159" t="s">
+        <v>721</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1838.0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>13.719303</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>720</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D160" t="s">
+        <v>721</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>13.620267</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>720</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D161" t="s">
+        <v>721</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>13.529969</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>720</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D162" t="s">
+        <v>721</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1841.0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>13.599891</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>720</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D163" t="s">
+        <v>721</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1842.0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>13.719303</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>720</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D164" t="s">
+        <v>721</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1843.0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>13.810247</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>720</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D165" t="s">
+        <v>721</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1844.0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>13.749484</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>720</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D166" t="s">
+        <v>721</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1845.0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>13.860014</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>720</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D167" t="s">
+        <v>721</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1846.0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>13.84083</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>720</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D168" t="s">
+        <v>721</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1847.0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>13.800718</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>720</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D169" t="s">
+        <v>721</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1848.0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>13.810247</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>720</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D170" t="s">
+        <v>721</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1849.0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>13.7893</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>720</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D171" t="s">
+        <v>721</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1850.0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>13.709899</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>720</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D172" t="s">
+        <v>721</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1851.0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>13.509862</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>720</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D173" t="s">
+        <v>721</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1852.0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>13.620267</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>720</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D174" t="s">
+        <v>721</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1853.0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>13.44086</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>720</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D175" t="s">
+        <v>721</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1854.0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>13.349353</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>720</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D176" t="s">
+        <v>721</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1855.0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>13.489815</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>720</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D177" t="s">
+        <v>721</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1856.0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>13.59065</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>720</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D178" t="s">
+        <v>721</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1857.0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>13.539128</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>720</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D179" t="s">
+        <v>721</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1858.0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>13.44086</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>720</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="D180" t="s">
+        <v>721</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>13.340448</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>720</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D181" t="s">
+        <v>721</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>13.360053</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>720</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D182" t="s">
+        <v>721</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1861.0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>13.579576</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>720</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D183" t="s">
+        <v>721</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1862.0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>13.500743</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>720</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D184" t="s">
+        <v>721</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1863.0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>13.500743</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>720</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D185" t="s">
+        <v>721</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1864.0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>13.559322</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>720</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D186" t="s">
+        <v>721</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1865.0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>13.579576</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>720</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D187" t="s">
+        <v>721</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1866.0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>13.599891</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>720</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D188" t="s">
+        <v>721</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1867.0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>13.59065</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>720</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D189" t="s">
+        <v>721</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1868.0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>13.640704</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>720</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D190" t="s">
+        <v>721</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1869.0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>13.700507</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>720</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D191" t="s">
+        <v>721</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1870.0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>13.67054</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>720</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D192" t="s">
+        <v>721</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1871.0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>13.650014</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>720</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D193" t="s">
+        <v>721</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1872.0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>13.67054</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>720</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D194" t="s">
+        <v>721</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1873.0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>20.521239</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>720</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D195" t="s">
+        <v>721</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1874.0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>20.610058</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>720</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D196" t="s">
+        <v>721</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1875.0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>20.721094</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>720</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D197" t="s">
+        <v>721</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1876.0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>20.644096</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>720</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D198" t="s">
+        <v>721</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1877.0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>20.639835</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>720</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D199" t="s">
+        <v>721</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1878.0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>20.627063</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>720</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D200" t="s">
+        <v>721</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>20.610058</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>726</v>
+      </c>
+      <c r="B3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>727</v>
+      </c>
+      <c r="B4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>728</v>
+      </c>
+      <c r="B5" t="s">
+        <v>721</v>
+      </c>
+      <c r="C5" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>729</v>
       </c>
       <c r="B6" t="s">
-        <v>534</v>
+        <v>721</v>
       </c>
       <c r="C6" t="s">
-        <v>548</v>
+        <v>735</v>
       </c>
     </row>
   </sheetData>

--- a/www/docs/Prussia_1680_1879_all_data.xlsx
+++ b/www/docs/Prussia_1680_1879_all_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="553">
   <si>
     <t>Webmapper code</t>
   </si>
@@ -1588,580 +1588,37 @@
     <t>2015</t>
   </si>
   <si>
-    <t>c("geacron/877", "geacron/878", "geacron/879", "geacron/880", "geacron/881", "geacron/882", "geacron/883", "geacron/884")</t>
-  </si>
-  <si>
-    <t>c(877, 878, 879, 880, 881, 882, 883, 884)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c("Prussia", "Prussia", "Prussia", "Prussia", "Prussia", "Prussia", "Prussia", "Prussia")</t>
-  </si>
-  <si>
-    <t>c("1680", "1720", "1740", "1760", "1780", "1800", "1820", "1860")</t>
-  </si>
-  <si>
-    <t>c("1719", "1739", "1759", "1779", "1799", "1819", "1859", "1879")</t>
-  </si>
-  <si>
-    <t>c("Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx")</t>
-  </si>
-  <si>
-    <t>c("Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound")</t>
-  </si>
-  <si>
-    <t>c(13.1544330439, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(13.246787654, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(13.0804447351, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.9600829445, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.9048909537, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(13.0975769483, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.656, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.563, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.5596583773, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.187, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.3441550426, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.4968757811, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(11.9976004799, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(11.6536534203, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(10.7457554266, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(11.4613180516, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.6566257436, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.9215660938, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.7048659637, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.8783000644, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(13.2257637879, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.7926314443, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.211503236, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.2579063496, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.2819945959, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.5313283208, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.6406269751, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.5533517449, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.2955858847, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.247397428, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.4766063631, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.4409056979, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.9115558425, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(13.0616509927, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(13.1250820318, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.936610608, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.6984126984, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.6630365962, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.9349372656, NA, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 12.8468653649, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 12.8122998078, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.133701077, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 12.9634430905, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 12.7665007022, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 12.7291242363, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.0225289751, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.0667712008, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 12.7616130679, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 12.5250501002, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 12.4409056979, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 12.6903553299, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 12.8238009746, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 12.8617363344, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.3636242149, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.2502981317, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.0106687484, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 12.7926314443, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 12.7437237161, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 12.8799587841, NA, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 12.8139415684, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 12.6342387871, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 12.6119308866, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 12.6151129053, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 12.5928724342, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 12.7991808524, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 13.3654103181, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 13.1440588854, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 13.0429111778, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 12.8982329421, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 12.5960448419, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 12.5897016241, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 12.5328988595, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 12.4843945069, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 12.573871495, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 12.9182276192, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 13.3886731825, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 13.5888028265, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 13.8888888889, NA, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 12.5015626953, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 12.1550990641, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 12.9433083096, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 12.8303823454, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 13.1371518655, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 13.0055924047, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 13.1406044678, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 13.3600534402, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 12.836970475, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 12.5234815279, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 12.4595066035, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 12.4564025909, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 12.4347177319, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 12.9920748344, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 13.0242250586, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 12.8567755207, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 12.5659713496, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 12.2189638319, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 12.745347948, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 13.1873928524, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 12.95001295, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 12.3977188197, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 12.1285627653, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 12.0554550934, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 12.8353228084, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 13.2170235263, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 12.9735339907, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 13.0191381331, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 13.1423314496, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 13.2205182443, NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, 13.2643586683, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, 13.3564845733, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, 12.9148908692, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, 13.5777325187, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, 13.3582687684, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, 12.6598303583, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, 12.685525815, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, 13.7193030594, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, 14.1322781232, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, 13.0667712008, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 11.9189511323, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 11.7785630153, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 12.33349778, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 12.836970475, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 13.2961042415, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 13.0872922392, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 12.8024580719, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 12.9600829445, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 12.8122998078, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 11.1844312717, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 11.2726862811, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 9.34579439252, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 10.3809820409, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 10.3626943005, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 11.2790435371, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 11.8301194842, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 13.4698275862, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 13.2996409097, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 12.8501670522, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, 13.170025023, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 13.8696255201, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 14.3204926249, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 14.1103428813, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 14.2694063927, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 13.9899272524, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 13.8408304498, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 14.1302811926, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 13.9198218263, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 13.8007176373, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 13.9004726161, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 14.0193466984, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 13.7494843943, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 13.9508928571, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 13.7005069188, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 13.7608366589, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 13.8102472034, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 13.7193030594, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 13.6202669572, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 13.5299688811, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 13.5998912009, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 13.86001386, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 13.7892995036, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 13.7098985468, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 13.5098621994, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 13.4408602151, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 13.3493525564, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 13.4898151895, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 13.5906496331, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 13.5391280802, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, 13.3404482391, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 13.3600534402)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 13.5795763172)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 13.5007425408)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 13.5593220339)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 13.5998912009)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 13.5906496331)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 13.6407038603)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 13.7005069188)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 13.6705399863)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 13.65001365)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 20.5212394829)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 20.6100577082)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 20.7210940738)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 20.6440957886)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 20.6398348813)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA, NA, NA, NA, 20.6270627063)</t>
+    <t>geacron/877</t>
+  </si>
+  <si>
+    <t>geacron/878</t>
+  </si>
+  <si>
+    <t>geacron/879</t>
+  </si>
+  <si>
+    <t>geacron/880</t>
+  </si>
+  <si>
+    <t>geacron/881</t>
+  </si>
+  <si>
+    <t>geacron/882</t>
+  </si>
+  <si>
+    <t>geacron/883</t>
+  </si>
+  <si>
+    <t>geacron/884</t>
+  </si>
+  <si>
+    <t>Prussia</t>
+  </si>
+  <si>
+    <t>Exchange_Rates_UK-historical.xlsx</t>
+  </si>
+  <si>
+    <t>Exchange Rates to UK Pound</t>
   </si>
   <si>
     <t>Borders Start Year</t>
@@ -2176,12 +1633,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>Prussia</t>
-  </si>
-  <si>
-    <t>Exchange Rates to UK Pound</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -2209,19 +1660,19 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/data/DataAtHistoricalBorders.xlsx</t>
+    <t>https://www.clio-infra.eu/data/Prussia_1680_1879_all_data.xlsx</t>
   </si>
   <si>
     <t>Bosch, Reinoud and Koen van den Bos (2015). Exchange Rates to UK Pound. http://hdl.handle.net/10622/N6BLB8, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_N6BLB8.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_N6BLB8.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_N6BLB8.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_N6BLB8.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_N6BLB8.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_N6BLB8.bib</t>
   </si>
 </sst>
 </file>
@@ -3850,1585 +3301,643 @@
       <c r="A2" t="s">
         <v>524</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="n">
+        <v>877.0</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1719.0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H2" t="s">
+        <v>534</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2"/>
+      <c r="BN2"/>
+      <c r="BO2"/>
+      <c r="BP2"/>
+      <c r="BQ2"/>
+      <c r="BR2"/>
+      <c r="BS2"/>
+      <c r="BT2"/>
+      <c r="BU2"/>
+      <c r="BV2"/>
+      <c r="BW2"/>
+      <c r="BX2"/>
+      <c r="BY2"/>
+      <c r="BZ2"/>
+      <c r="CA2"/>
+      <c r="CB2"/>
+      <c r="CC2"/>
+      <c r="CD2"/>
+      <c r="CE2"/>
+      <c r="CF2"/>
+      <c r="CG2"/>
+      <c r="CH2"/>
+      <c r="CI2"/>
+      <c r="CJ2"/>
+      <c r="CK2"/>
+      <c r="CL2"/>
+      <c r="CM2"/>
+      <c r="CN2"/>
+      <c r="CO2"/>
+      <c r="CP2"/>
+      <c r="CQ2"/>
+      <c r="CR2"/>
+      <c r="CS2"/>
+      <c r="CT2"/>
+      <c r="CU2"/>
+      <c r="CV2"/>
+      <c r="CW2"/>
+      <c r="CX2"/>
+      <c r="CY2"/>
+      <c r="CZ2"/>
+      <c r="DA2"/>
+      <c r="DB2"/>
+      <c r="DC2"/>
+      <c r="DD2"/>
+      <c r="DE2"/>
+      <c r="DF2"/>
+      <c r="DG2"/>
+      <c r="DH2"/>
+      <c r="DI2"/>
+      <c r="DJ2"/>
+      <c r="DK2"/>
+      <c r="DL2"/>
+      <c r="DM2"/>
+      <c r="DN2"/>
+      <c r="DO2"/>
+      <c r="DP2"/>
+      <c r="DQ2"/>
+      <c r="DR2"/>
+      <c r="DS2"/>
+      <c r="DT2"/>
+      <c r="DU2"/>
+      <c r="DV2"/>
+      <c r="DW2"/>
+      <c r="DX2"/>
+      <c r="DY2"/>
+      <c r="DZ2"/>
+      <c r="EA2"/>
+      <c r="EB2"/>
+      <c r="EC2"/>
+      <c r="ED2"/>
+      <c r="EE2"/>
+      <c r="EF2"/>
+      <c r="EG2"/>
+      <c r="EH2"/>
+      <c r="EI2"/>
+      <c r="EJ2"/>
+      <c r="EK2"/>
+      <c r="EL2"/>
+      <c r="EM2"/>
+      <c r="EN2"/>
+      <c r="EO2"/>
+      <c r="EP2"/>
+      <c r="EQ2"/>
+      <c r="ER2"/>
+      <c r="ES2"/>
+      <c r="ET2"/>
+      <c r="EU2"/>
+      <c r="EV2"/>
+      <c r="EW2"/>
+      <c r="EX2"/>
+      <c r="EY2"/>
+      <c r="EZ2"/>
+      <c r="FA2"/>
+      <c r="FB2"/>
+      <c r="FC2"/>
+      <c r="FD2"/>
+      <c r="FE2"/>
+      <c r="FF2"/>
+      <c r="FG2"/>
+      <c r="FH2"/>
+      <c r="FI2"/>
+      <c r="FJ2"/>
+      <c r="FK2"/>
+      <c r="FL2"/>
+      <c r="FM2"/>
+      <c r="FN2"/>
+      <c r="FO2"/>
+      <c r="FP2"/>
+      <c r="FQ2"/>
+      <c r="FR2"/>
+      <c r="FS2"/>
+      <c r="FT2"/>
+      <c r="FU2"/>
+      <c r="FV2"/>
+      <c r="FW2"/>
+      <c r="FX2"/>
+      <c r="FY2"/>
+      <c r="FZ2"/>
+      <c r="GA2"/>
+      <c r="GB2"/>
+      <c r="GC2"/>
+      <c r="GD2"/>
+      <c r="GE2"/>
+      <c r="GF2"/>
+      <c r="GG2" t="n">
+        <v>13.15443</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>13.24679</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>13.08044</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>12.96008</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>12.90489</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>13.09758</v>
+      </c>
+      <c r="GM2"/>
+      <c r="GN2" t="n">
+        <v>12.656</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>12.563</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>12.55966</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>12.187</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>12.34416</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>12.49688</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>11.9976</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>11.65365</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>10.74576</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>11.46132</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>12.65663</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>12.92157</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>12.70487</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>12.8783</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>13.22576</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>12.79263</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>12.2115</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>12.25791</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>12.28199</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>12.53133</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>12.64063</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>12.55335</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>12.29559</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>12.2474</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>12.47661</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>12.44091</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>12.91156</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>13.06165</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>13.12508</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>12.93661</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>12.69841</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>12.66304</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>12.93494</v>
+      </c>
+      <c r="HU2"/>
+      <c r="HV2"/>
+      <c r="HW2"/>
+      <c r="HX2"/>
+      <c r="HY2"/>
+      <c r="HZ2"/>
+      <c r="IA2"/>
+      <c r="IB2"/>
+      <c r="IC2"/>
+      <c r="ID2"/>
+      <c r="IE2"/>
+      <c r="IF2"/>
+      <c r="IG2"/>
+      <c r="IH2"/>
+      <c r="II2"/>
+      <c r="IJ2"/>
+      <c r="IK2"/>
+      <c r="IL2"/>
+      <c r="IM2"/>
+      <c r="IN2"/>
+      <c r="IO2"/>
+      <c r="IP2"/>
+      <c r="IQ2"/>
+      <c r="IR2"/>
+      <c r="IS2"/>
+      <c r="IT2"/>
+      <c r="IU2"/>
+      <c r="IV2"/>
+      <c r="IW2"/>
+      <c r="IX2"/>
+      <c r="IY2"/>
+      <c r="IZ2"/>
+      <c r="JA2"/>
+      <c r="JB2"/>
+      <c r="JC2"/>
+      <c r="JD2"/>
+      <c r="JE2"/>
+      <c r="JF2"/>
+      <c r="JG2"/>
+      <c r="JH2"/>
+      <c r="JI2"/>
+      <c r="JJ2"/>
+      <c r="JK2"/>
+      <c r="JL2"/>
+      <c r="JM2"/>
+      <c r="JN2"/>
+      <c r="JO2"/>
+      <c r="JP2"/>
+      <c r="JQ2"/>
+      <c r="JR2"/>
+      <c r="JS2"/>
+      <c r="JT2"/>
+      <c r="JU2"/>
+      <c r="JV2"/>
+      <c r="JW2"/>
+      <c r="JX2"/>
+      <c r="JY2"/>
+      <c r="JZ2"/>
+      <c r="KA2"/>
+      <c r="KB2"/>
+      <c r="KC2"/>
+      <c r="KD2"/>
+      <c r="KE2"/>
+      <c r="KF2"/>
+      <c r="KG2"/>
+      <c r="KH2"/>
+      <c r="KI2"/>
+      <c r="KJ2"/>
+      <c r="KK2"/>
+      <c r="KL2"/>
+      <c r="KM2"/>
+      <c r="KN2"/>
+      <c r="KO2"/>
+      <c r="KP2"/>
+      <c r="KQ2"/>
+      <c r="KR2"/>
+      <c r="KS2"/>
+      <c r="KT2"/>
+      <c r="KU2"/>
+      <c r="KV2"/>
+      <c r="KW2"/>
+      <c r="KX2"/>
+      <c r="KY2"/>
+      <c r="KZ2"/>
+      <c r="LA2"/>
+      <c r="LB2"/>
+      <c r="LC2"/>
+      <c r="LD2"/>
+      <c r="LE2"/>
+      <c r="LF2"/>
+      <c r="LG2"/>
+      <c r="LH2"/>
+      <c r="LI2"/>
+      <c r="LJ2"/>
+      <c r="LK2"/>
+      <c r="LL2"/>
+      <c r="LM2"/>
+      <c r="LN2"/>
+      <c r="LO2"/>
+      <c r="LP2"/>
+      <c r="LQ2"/>
+      <c r="LR2"/>
+      <c r="LS2"/>
+      <c r="LT2"/>
+      <c r="LU2"/>
+      <c r="LV2"/>
+      <c r="LW2"/>
+      <c r="LX2"/>
+      <c r="LY2"/>
+      <c r="LZ2"/>
+      <c r="MA2"/>
+      <c r="MB2"/>
+      <c r="MC2"/>
+      <c r="MD2"/>
+      <c r="ME2"/>
+      <c r="MF2"/>
+      <c r="MG2"/>
+      <c r="MH2"/>
+      <c r="MI2"/>
+      <c r="MJ2"/>
+      <c r="MK2"/>
+      <c r="ML2"/>
+      <c r="MM2"/>
+      <c r="MN2"/>
+      <c r="MO2"/>
+      <c r="MP2"/>
+      <c r="MQ2"/>
+      <c r="MR2"/>
+      <c r="MS2"/>
+      <c r="MT2"/>
+      <c r="MU2"/>
+      <c r="MV2"/>
+      <c r="MW2"/>
+      <c r="MX2"/>
+      <c r="MY2"/>
+      <c r="MZ2"/>
+      <c r="NA2"/>
+      <c r="NB2"/>
+      <c r="NC2"/>
+      <c r="ND2"/>
+      <c r="NE2"/>
+      <c r="NF2"/>
+      <c r="NG2"/>
+      <c r="NH2"/>
+      <c r="NI2"/>
+      <c r="NJ2"/>
+      <c r="NK2"/>
+      <c r="NL2"/>
+      <c r="NM2"/>
+      <c r="NN2"/>
+      <c r="NO2"/>
+      <c r="NP2"/>
+      <c r="NQ2"/>
+      <c r="NR2"/>
+      <c r="NS2"/>
+      <c r="NT2"/>
+      <c r="NU2"/>
+      <c r="NV2"/>
+      <c r="NW2"/>
+      <c r="NX2"/>
+      <c r="NY2"/>
+      <c r="NZ2"/>
+      <c r="OA2"/>
+      <c r="OB2"/>
+      <c r="OC2"/>
+      <c r="OD2"/>
+      <c r="OE2"/>
+      <c r="OF2"/>
+      <c r="OG2"/>
+      <c r="OH2"/>
+      <c r="OI2"/>
+      <c r="OJ2"/>
+      <c r="OK2"/>
+      <c r="OL2"/>
+      <c r="OM2"/>
+      <c r="ON2"/>
+      <c r="OO2"/>
+      <c r="OP2"/>
+      <c r="OQ2"/>
+      <c r="OR2"/>
+      <c r="OS2"/>
+      <c r="OT2"/>
+      <c r="OU2"/>
+      <c r="OV2"/>
+      <c r="OW2"/>
+      <c r="OX2"/>
+      <c r="OY2"/>
+      <c r="OZ2"/>
+      <c r="PA2"/>
+      <c r="PB2"/>
+      <c r="PC2"/>
+      <c r="PD2"/>
+      <c r="PE2"/>
+      <c r="PF2"/>
+      <c r="PG2"/>
+      <c r="PH2"/>
+      <c r="PI2"/>
+      <c r="PJ2"/>
+      <c r="PK2"/>
+      <c r="PL2"/>
+      <c r="PM2"/>
+      <c r="PN2"/>
+      <c r="PO2"/>
+      <c r="PP2"/>
+      <c r="PQ2"/>
+      <c r="PR2"/>
+      <c r="PS2"/>
+      <c r="PT2"/>
+      <c r="PU2"/>
+      <c r="PV2"/>
+      <c r="PW2"/>
+      <c r="PX2"/>
+      <c r="PY2"/>
+      <c r="PZ2"/>
+      <c r="QA2"/>
+      <c r="QB2"/>
+      <c r="QC2"/>
+      <c r="QD2"/>
+      <c r="QE2"/>
+      <c r="QF2"/>
+      <c r="QG2"/>
+      <c r="QH2"/>
+      <c r="QI2"/>
+      <c r="QJ2"/>
+      <c r="QK2"/>
+      <c r="QL2"/>
+      <c r="QM2"/>
+      <c r="QN2"/>
+      <c r="QO2"/>
+      <c r="QP2"/>
+      <c r="QQ2"/>
+      <c r="QR2"/>
+      <c r="QS2"/>
+      <c r="QT2"/>
+      <c r="QU2"/>
+      <c r="QV2"/>
+      <c r="QW2"/>
+      <c r="QX2"/>
+      <c r="QY2"/>
+      <c r="QZ2"/>
+      <c r="RA2"/>
+      <c r="RB2"/>
+      <c r="RC2"/>
+      <c r="RD2"/>
+      <c r="RE2"/>
+      <c r="RF2"/>
+      <c r="RG2"/>
+      <c r="RH2"/>
+      <c r="RI2"/>
+      <c r="RJ2"/>
+      <c r="RK2"/>
+      <c r="RL2"/>
+      <c r="RM2"/>
+      <c r="RN2"/>
+      <c r="RO2"/>
+      <c r="RP2"/>
+      <c r="RQ2"/>
+      <c r="RR2"/>
+      <c r="RS2"/>
+      <c r="RT2"/>
+      <c r="RU2"/>
+      <c r="RV2"/>
+      <c r="RW2"/>
+      <c r="RX2"/>
+      <c r="RY2"/>
+      <c r="RZ2"/>
+      <c r="SA2"/>
+      <c r="SB2"/>
+      <c r="SC2"/>
+      <c r="SD2"/>
+      <c r="SE2"/>
+      <c r="SF2"/>
+      <c r="SG2"/>
+      <c r="SH2"/>
+      <c r="SI2"/>
+      <c r="SJ2"/>
+      <c r="SK2"/>
+      <c r="SL2"/>
+      <c r="SM2"/>
+      <c r="SN2"/>
+      <c r="SO2"/>
+      <c r="SP2"/>
+      <c r="SQ2"/>
+      <c r="SR2"/>
+      <c r="SS2"/>
+      <c r="ST2"/>
+      <c r="SU2"/>
+      <c r="SV2"/>
+      <c r="SW2"/>
+      <c r="SX2"/>
+      <c r="SY2"/>
+      <c r="SZ2"/>
+      <c r="TA2"/>
+      <c r="TB2"/>
+      <c r="TC2"/>
+      <c r="TD2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>525</v>
       </c>
-      <c r="C2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E2" t="s">
-        <v>528</v>
-      </c>
-      <c r="F2" t="s">
-        <v>529</v>
-      </c>
-      <c r="G2" t="s">
-        <v>530</v>
-      </c>
-      <c r="H2" t="s">
-        <v>531</v>
-      </c>
-      <c r="I2" t="s">
-        <v>526</v>
-      </c>
-      <c r="J2" t="s">
-        <v>526</v>
-      </c>
-      <c r="K2" t="s">
-        <v>526</v>
-      </c>
-      <c r="L2" t="s">
-        <v>526</v>
-      </c>
-      <c r="M2" t="s">
-        <v>526</v>
-      </c>
-      <c r="N2" t="s">
-        <v>526</v>
-      </c>
-      <c r="O2" t="s">
-        <v>526</v>
-      </c>
-      <c r="P2" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>526</v>
-      </c>
-      <c r="R2" t="s">
-        <v>526</v>
-      </c>
-      <c r="S2" t="s">
-        <v>526</v>
-      </c>
-      <c r="T2" t="s">
-        <v>526</v>
-      </c>
-      <c r="U2" t="s">
-        <v>526</v>
-      </c>
-      <c r="V2" t="s">
-        <v>526</v>
-      </c>
-      <c r="W2" t="s">
-        <v>526</v>
-      </c>
-      <c r="X2" t="s">
-        <v>526</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>526</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GG2" t="s">
-        <v>532</v>
-      </c>
-      <c r="GH2" t="s">
+      <c r="B3" t="n">
+        <v>878.0</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1720.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1739.0</v>
+      </c>
+      <c r="G3" t="s">
         <v>533</v>
       </c>
-      <c r="GI2" t="s">
-        <v>534</v>
-      </c>
-      <c r="GJ2" t="s">
-        <v>535</v>
-      </c>
-      <c r="GK2" t="s">
-        <v>536</v>
-      </c>
-      <c r="GL2" t="s">
-        <v>537</v>
-      </c>
-      <c r="GM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GN2" t="s">
-        <v>538</v>
-      </c>
-      <c r="GO2" t="s">
-        <v>539</v>
-      </c>
-      <c r="GP2" t="s">
-        <v>540</v>
-      </c>
-      <c r="GQ2" t="s">
-        <v>541</v>
-      </c>
-      <c r="GR2" t="s">
-        <v>542</v>
-      </c>
-      <c r="GS2" t="s">
-        <v>543</v>
-      </c>
-      <c r="GT2" t="s">
-        <v>544</v>
-      </c>
-      <c r="GU2" t="s">
-        <v>545</v>
-      </c>
-      <c r="GV2" t="s">
-        <v>546</v>
-      </c>
-      <c r="GW2" t="s">
-        <v>547</v>
-      </c>
-      <c r="GX2" t="s">
-        <v>548</v>
-      </c>
-      <c r="GY2" t="s">
-        <v>549</v>
-      </c>
-      <c r="GZ2" t="s">
-        <v>550</v>
-      </c>
-      <c r="HA2" t="s">
-        <v>551</v>
-      </c>
-      <c r="HB2" t="s">
-        <v>552</v>
-      </c>
-      <c r="HC2" t="s">
-        <v>553</v>
-      </c>
-      <c r="HD2" t="s">
-        <v>554</v>
-      </c>
-      <c r="HE2" t="s">
-        <v>555</v>
-      </c>
-      <c r="HF2" t="s">
-        <v>556</v>
-      </c>
-      <c r="HG2" t="s">
-        <v>557</v>
-      </c>
-      <c r="HH2" t="s">
-        <v>558</v>
-      </c>
-      <c r="HI2" t="s">
-        <v>559</v>
-      </c>
-      <c r="HJ2" t="s">
-        <v>560</v>
-      </c>
-      <c r="HK2" t="s">
-        <v>561</v>
-      </c>
-      <c r="HL2" t="s">
-        <v>562</v>
-      </c>
-      <c r="HM2" t="s">
-        <v>563</v>
-      </c>
-      <c r="HN2" t="s">
-        <v>564</v>
-      </c>
-      <c r="HO2" t="s">
-        <v>565</v>
-      </c>
-      <c r="HP2" t="s">
-        <v>566</v>
-      </c>
-      <c r="HQ2" t="s">
-        <v>567</v>
-      </c>
-      <c r="HR2" t="s">
-        <v>568</v>
-      </c>
-      <c r="HS2" t="s">
-        <v>569</v>
-      </c>
-      <c r="HT2" t="s">
-        <v>570</v>
-      </c>
-      <c r="HU2" t="s">
-        <v>571</v>
-      </c>
-      <c r="HV2" t="s">
-        <v>572</v>
-      </c>
-      <c r="HW2" t="s">
-        <v>573</v>
-      </c>
-      <c r="HX2" t="s">
-        <v>574</v>
-      </c>
-      <c r="HY2" t="s">
-        <v>575</v>
-      </c>
-      <c r="HZ2" t="s">
-        <v>576</v>
-      </c>
-      <c r="IA2" t="s">
-        <v>577</v>
-      </c>
-      <c r="IB2" t="s">
-        <v>578</v>
-      </c>
-      <c r="IC2" t="s">
-        <v>579</v>
-      </c>
-      <c r="ID2" t="s">
-        <v>580</v>
-      </c>
-      <c r="IE2" t="s">
-        <v>581</v>
-      </c>
-      <c r="IF2" t="s">
-        <v>582</v>
-      </c>
-      <c r="IG2" t="s">
-        <v>583</v>
-      </c>
-      <c r="IH2" t="s">
-        <v>584</v>
-      </c>
-      <c r="II2" t="s">
-        <v>585</v>
-      </c>
-      <c r="IJ2" t="s">
-        <v>586</v>
-      </c>
-      <c r="IK2" t="s">
-        <v>587</v>
-      </c>
-      <c r="IL2" t="s">
-        <v>588</v>
-      </c>
-      <c r="IM2" t="s">
-        <v>589</v>
-      </c>
-      <c r="IN2" t="s">
-        <v>590</v>
-      </c>
-      <c r="IO2" t="s">
-        <v>591</v>
-      </c>
-      <c r="IP2" t="s">
-        <v>592</v>
-      </c>
-      <c r="IQ2" t="s">
-        <v>593</v>
-      </c>
-      <c r="IR2" t="s">
-        <v>594</v>
-      </c>
-      <c r="IS2" t="s">
-        <v>595</v>
-      </c>
-      <c r="IT2" t="s">
-        <v>596</v>
-      </c>
-      <c r="IU2" t="s">
-        <v>597</v>
-      </c>
-      <c r="IV2" t="s">
-        <v>598</v>
-      </c>
-      <c r="IW2" t="s">
-        <v>599</v>
-      </c>
-      <c r="IX2" t="s">
-        <v>600</v>
-      </c>
-      <c r="IY2" t="s">
-        <v>601</v>
-      </c>
-      <c r="IZ2" t="s">
-        <v>602</v>
-      </c>
-      <c r="JA2" t="s">
-        <v>603</v>
-      </c>
-      <c r="JB2" t="s">
-        <v>604</v>
-      </c>
-      <c r="JC2" t="s">
-        <v>605</v>
-      </c>
-      <c r="JD2" t="s">
-        <v>606</v>
-      </c>
-      <c r="JE2" t="s">
-        <v>607</v>
-      </c>
-      <c r="JF2" t="s">
-        <v>608</v>
-      </c>
-      <c r="JG2" t="s">
-        <v>597</v>
-      </c>
-      <c r="JH2" t="s">
-        <v>609</v>
-      </c>
-      <c r="JI2" t="s">
-        <v>610</v>
-      </c>
-      <c r="JJ2" t="s">
-        <v>611</v>
-      </c>
-      <c r="JK2" t="s">
-        <v>612</v>
-      </c>
-      <c r="JL2" t="s">
-        <v>613</v>
-      </c>
-      <c r="JM2" t="s">
-        <v>614</v>
-      </c>
-      <c r="JN2" t="s">
-        <v>615</v>
-      </c>
-      <c r="JO2" t="s">
-        <v>616</v>
-      </c>
-      <c r="JP2" t="s">
-        <v>617</v>
-      </c>
-      <c r="JQ2" t="s">
-        <v>618</v>
-      </c>
-      <c r="JR2" t="s">
-        <v>619</v>
-      </c>
-      <c r="JS2" t="s">
-        <v>620</v>
-      </c>
-      <c r="JT2" t="s">
-        <v>621</v>
-      </c>
-      <c r="JU2" t="s">
-        <v>622</v>
-      </c>
-      <c r="JV2" t="s">
-        <v>623</v>
-      </c>
-      <c r="JW2" t="s">
-        <v>624</v>
-      </c>
-      <c r="JX2" t="s">
-        <v>625</v>
-      </c>
-      <c r="JY2" t="s">
-        <v>626</v>
-      </c>
-      <c r="JZ2" t="s">
-        <v>627</v>
-      </c>
-      <c r="KA2" t="s">
-        <v>628</v>
-      </c>
-      <c r="KB2" t="s">
-        <v>629</v>
-      </c>
-      <c r="KC2" t="s">
-        <v>630</v>
-      </c>
-      <c r="KD2" t="s">
-        <v>631</v>
-      </c>
-      <c r="KE2" t="s">
-        <v>632</v>
-      </c>
-      <c r="KF2" t="s">
-        <v>633</v>
-      </c>
-      <c r="KG2" t="s">
-        <v>634</v>
-      </c>
-      <c r="KH2" t="s">
-        <v>635</v>
-      </c>
-      <c r="KI2" t="s">
-        <v>636</v>
-      </c>
-      <c r="KJ2" t="s">
-        <v>637</v>
-      </c>
-      <c r="KK2" t="s">
-        <v>638</v>
-      </c>
-      <c r="KL2" t="s">
-        <v>639</v>
-      </c>
-      <c r="KM2" t="s">
-        <v>640</v>
-      </c>
-      <c r="KN2" t="s">
-        <v>641</v>
-      </c>
-      <c r="KO2" t="s">
-        <v>642</v>
-      </c>
-      <c r="KP2" t="s">
-        <v>643</v>
-      </c>
-      <c r="KQ2" t="s">
-        <v>644</v>
-      </c>
-      <c r="KR2" t="s">
-        <v>645</v>
-      </c>
-      <c r="KS2" t="s">
-        <v>646</v>
-      </c>
-      <c r="KT2" t="s">
-        <v>647</v>
-      </c>
-      <c r="KU2" t="s">
-        <v>648</v>
-      </c>
-      <c r="KV2" t="s">
-        <v>649</v>
-      </c>
-      <c r="KW2" t="s">
-        <v>650</v>
-      </c>
-      <c r="KX2" t="s">
-        <v>651</v>
-      </c>
-      <c r="KY2" t="s">
-        <v>652</v>
-      </c>
-      <c r="KZ2" t="s">
-        <v>653</v>
-      </c>
-      <c r="LA2" t="s">
-        <v>654</v>
-      </c>
-      <c r="LB2" t="s">
-        <v>655</v>
-      </c>
-      <c r="LC2" t="s">
-        <v>656</v>
-      </c>
-      <c r="LD2" t="s">
-        <v>657</v>
-      </c>
-      <c r="LE2" t="s">
-        <v>658</v>
-      </c>
-      <c r="LF2" t="s">
-        <v>659</v>
-      </c>
-      <c r="LG2" t="s">
-        <v>660</v>
-      </c>
-      <c r="LH2" t="s">
-        <v>661</v>
-      </c>
-      <c r="LI2" t="s">
-        <v>662</v>
-      </c>
-      <c r="LJ2" t="s">
-        <v>663</v>
-      </c>
-      <c r="LK2" t="s">
-        <v>664</v>
-      </c>
-      <c r="LL2" t="s">
-        <v>665</v>
-      </c>
-      <c r="LM2" t="s">
-        <v>666</v>
-      </c>
-      <c r="LN2" t="s">
-        <v>667</v>
-      </c>
-      <c r="LO2" t="s">
-        <v>668</v>
-      </c>
-      <c r="LP2" t="s">
-        <v>669</v>
-      </c>
-      <c r="LQ2" t="s">
-        <v>670</v>
-      </c>
-      <c r="LR2" t="s">
-        <v>671</v>
-      </c>
-      <c r="LS2" t="s">
-        <v>672</v>
-      </c>
-      <c r="LT2" t="s">
-        <v>673</v>
-      </c>
-      <c r="LU2" t="s">
-        <v>674</v>
-      </c>
-      <c r="LV2" t="s">
-        <v>675</v>
-      </c>
-      <c r="LW2" t="s">
-        <v>676</v>
-      </c>
-      <c r="LX2" t="s">
-        <v>677</v>
-      </c>
-      <c r="LY2" t="s">
-        <v>678</v>
-      </c>
-      <c r="LZ2" t="s">
-        <v>679</v>
-      </c>
-      <c r="MA2" t="s">
-        <v>680</v>
-      </c>
-      <c r="MB2" t="s">
-        <v>681</v>
-      </c>
-      <c r="MC2" t="s">
-        <v>682</v>
-      </c>
-      <c r="MD2" t="s">
-        <v>670</v>
-      </c>
-      <c r="ME2" t="s">
-        <v>683</v>
-      </c>
-      <c r="MF2" t="s">
-        <v>684</v>
-      </c>
-      <c r="MG2" t="s">
-        <v>685</v>
-      </c>
-      <c r="MH2" t="s">
-        <v>685</v>
-      </c>
-      <c r="MI2" t="s">
-        <v>686</v>
-      </c>
-      <c r="MJ2" t="s">
-        <v>687</v>
-      </c>
-      <c r="MK2" t="s">
-        <v>688</v>
-      </c>
-      <c r="ML2" t="s">
-        <v>689</v>
-      </c>
-      <c r="MM2" t="s">
-        <v>686</v>
-      </c>
-      <c r="MN2" t="s">
-        <v>685</v>
-      </c>
-      <c r="MO2" t="s">
-        <v>681</v>
-      </c>
-      <c r="MP2" t="s">
-        <v>690</v>
-      </c>
-      <c r="MQ2" t="s">
-        <v>675</v>
-      </c>
-      <c r="MR2" t="s">
-        <v>678</v>
-      </c>
-      <c r="MS2" t="s">
-        <v>685</v>
-      </c>
-      <c r="MT2" t="s">
-        <v>691</v>
-      </c>
-      <c r="MU2" t="s">
-        <v>692</v>
-      </c>
-      <c r="MV2" t="s">
-        <v>693</v>
-      </c>
-      <c r="MW2" t="s">
-        <v>687</v>
-      </c>
-      <c r="MX2" t="s">
-        <v>694</v>
-      </c>
-      <c r="MY2" t="s">
-        <v>695</v>
-      </c>
-      <c r="MZ2" t="s">
-        <v>696</v>
-      </c>
-      <c r="NA2" t="s">
-        <v>697</v>
-      </c>
-      <c r="NB2" t="s">
-        <v>698</v>
-      </c>
-      <c r="NC2" t="s">
-        <v>694</v>
-      </c>
-      <c r="ND2" t="s">
-        <v>699</v>
-      </c>
-      <c r="NE2" t="s">
-        <v>700</v>
-      </c>
-      <c r="NF2" t="s">
-        <v>701</v>
-      </c>
-      <c r="NG2" t="s">
-        <v>702</v>
-      </c>
-      <c r="NH2" t="s">
-        <v>702</v>
-      </c>
-      <c r="NI2" t="s">
-        <v>703</v>
-      </c>
-      <c r="NJ2" t="s">
-        <v>701</v>
-      </c>
-      <c r="NK2" t="s">
-        <v>704</v>
-      </c>
-      <c r="NL2" t="s">
-        <v>705</v>
-      </c>
-      <c r="NM2" t="s">
-        <v>706</v>
-      </c>
-      <c r="NN2" t="s">
-        <v>707</v>
-      </c>
-      <c r="NO2" t="s">
-        <v>708</v>
-      </c>
-      <c r="NP2" t="s">
-        <v>709</v>
-      </c>
-      <c r="NQ2" t="s">
-        <v>708</v>
-      </c>
-      <c r="NR2" t="s">
-        <v>710</v>
-      </c>
-      <c r="NS2" t="s">
-        <v>711</v>
-      </c>
-      <c r="NT2" t="s">
-        <v>712</v>
-      </c>
-      <c r="NU2" t="s">
-        <v>713</v>
-      </c>
-      <c r="NV2" t="s">
-        <v>714</v>
-      </c>
-      <c r="NW2" t="s">
-        <v>715</v>
-      </c>
-      <c r="NX2" t="s">
-        <v>711</v>
-      </c>
-      <c r="NY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ON2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ST2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="TA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="TB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="TC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="TD2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
+      <c r="H3" t="s">
+        <v>534</v>
+      </c>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -5649,26 +4158,66 @@
       <c r="HR3"/>
       <c r="HS3"/>
       <c r="HT3"/>
-      <c r="HU3"/>
-      <c r="HV3"/>
-      <c r="HW3"/>
-      <c r="HX3"/>
-      <c r="HY3"/>
-      <c r="HZ3"/>
-      <c r="IA3"/>
-      <c r="IB3"/>
-      <c r="IC3"/>
-      <c r="ID3"/>
-      <c r="IE3"/>
-      <c r="IF3"/>
-      <c r="IG3"/>
-      <c r="IH3"/>
-      <c r="II3"/>
-      <c r="IJ3"/>
-      <c r="IK3"/>
-      <c r="IL3"/>
-      <c r="IM3"/>
-      <c r="IN3"/>
+      <c r="HU3" t="n">
+        <v>12.84687</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>12.8123</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>13.1337</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>12.96344</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>12.7665</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>12.72912</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>13.02253</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>13.06677</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>12.76161</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>12.52505</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>12.44091</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>12.69036</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>12.8238</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>12.86174</v>
+      </c>
+      <c r="II3" t="n">
+        <v>13.36362</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>13.2503</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>13.01067</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>12.79263</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>12.74372</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>12.87996</v>
+      </c>
       <c r="IO3"/>
       <c r="IP3"/>
       <c r="IQ3"/>
@@ -5947,14 +4496,28 @@
       <c r="TD3"/>
     </row>
     <row r="4">
-      <c r="A4"/>
-      <c r="B4"/>
+      <c r="A4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B4" t="n">
+        <v>879.0</v>
+      </c>
       <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
+      <c r="D4" t="s">
+        <v>532</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1740.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1759.0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>533</v>
+      </c>
+      <c r="H4" t="s">
+        <v>534</v>
+      </c>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
@@ -6195,26 +4758,66 @@
       <c r="IL4"/>
       <c r="IM4"/>
       <c r="IN4"/>
-      <c r="IO4"/>
-      <c r="IP4"/>
-      <c r="IQ4"/>
-      <c r="IR4"/>
-      <c r="IS4"/>
-      <c r="IT4"/>
-      <c r="IU4"/>
-      <c r="IV4"/>
-      <c r="IW4"/>
-      <c r="IX4"/>
-      <c r="IY4"/>
-      <c r="IZ4"/>
-      <c r="JA4"/>
-      <c r="JB4"/>
-      <c r="JC4"/>
-      <c r="JD4"/>
-      <c r="JE4"/>
-      <c r="JF4"/>
-      <c r="JG4"/>
-      <c r="JH4"/>
+      <c r="IO4" t="n">
+        <v>12.81394</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>12.63424</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>12.61193</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>12.61511</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>12.59287</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>12.79918</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>13.36541</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>13.14406</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>13.04291</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>12.89823</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>12.59604</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>12.5897</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>12.5329</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>12.48439</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>12.57387</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>12.91823</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>13.38867</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>13.5888</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>13.36541</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>13.88889</v>
+      </c>
       <c r="JI4"/>
       <c r="JJ4"/>
       <c r="JK4"/>
@@ -6473,14 +5076,28 @@
       <c r="TD4"/>
     </row>
     <row r="5">
-      <c r="A5"/>
-      <c r="B5"/>
+      <c r="A5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B5" t="n">
+        <v>880.0</v>
+      </c>
       <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
+      <c r="D5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1779.0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>533</v>
+      </c>
+      <c r="H5" t="s">
+        <v>534</v>
+      </c>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
@@ -6741,36 +5358,96 @@
       <c r="JF5"/>
       <c r="JG5"/>
       <c r="JH5"/>
-      <c r="JI5"/>
-      <c r="JJ5"/>
-      <c r="JK5"/>
-      <c r="JL5"/>
-      <c r="JM5"/>
-      <c r="JN5"/>
-      <c r="JO5"/>
-      <c r="JP5"/>
-      <c r="JQ5"/>
-      <c r="JR5"/>
-      <c r="JS5"/>
-      <c r="JT5"/>
-      <c r="JU5"/>
-      <c r="JV5"/>
-      <c r="JW5"/>
-      <c r="JX5"/>
-      <c r="JY5"/>
-      <c r="JZ5"/>
-      <c r="KA5"/>
-      <c r="KB5"/>
-      <c r="KC5"/>
-      <c r="KD5"/>
-      <c r="KE5"/>
-      <c r="KF5"/>
-      <c r="KG5"/>
-      <c r="KH5"/>
-      <c r="KI5"/>
-      <c r="KJ5"/>
-      <c r="KK5"/>
-      <c r="KL5"/>
+      <c r="JI5" t="n">
+        <v>12.50156</v>
+      </c>
+      <c r="JJ5" t="n">
+        <v>12.1551</v>
+      </c>
+      <c r="JK5" t="n">
+        <v>12.94331</v>
+      </c>
+      <c r="JL5" t="n">
+        <v>12.83038</v>
+      </c>
+      <c r="JM5" t="n">
+        <v>13.13715</v>
+      </c>
+      <c r="JN5" t="n">
+        <v>13.00559</v>
+      </c>
+      <c r="JO5" t="n">
+        <v>13.1406</v>
+      </c>
+      <c r="JP5" t="n">
+        <v>13.36005</v>
+      </c>
+      <c r="JQ5" t="n">
+        <v>12.83697</v>
+      </c>
+      <c r="JR5" t="n">
+        <v>12.52348</v>
+      </c>
+      <c r="JS5" t="n">
+        <v>12.45951</v>
+      </c>
+      <c r="JT5" t="n">
+        <v>12.4564</v>
+      </c>
+      <c r="JU5" t="n">
+        <v>12.43472</v>
+      </c>
+      <c r="JV5" t="n">
+        <v>12.99207</v>
+      </c>
+      <c r="JW5" t="n">
+        <v>13.02423</v>
+      </c>
+      <c r="JX5" t="n">
+        <v>12.85678</v>
+      </c>
+      <c r="JY5" t="n">
+        <v>12.56597</v>
+      </c>
+      <c r="JZ5" t="n">
+        <v>12.21896</v>
+      </c>
+      <c r="KA5" t="n">
+        <v>12.74535</v>
+      </c>
+      <c r="KB5" t="n">
+        <v>13.18739</v>
+      </c>
+      <c r="KC5" t="n">
+        <v>12.95001</v>
+      </c>
+      <c r="KD5" t="n">
+        <v>12.39772</v>
+      </c>
+      <c r="KE5" t="n">
+        <v>12.12856</v>
+      </c>
+      <c r="KF5" t="n">
+        <v>12.05546</v>
+      </c>
+      <c r="KG5" t="n">
+        <v>12.83532</v>
+      </c>
+      <c r="KH5" t="n">
+        <v>13.21702</v>
+      </c>
+      <c r="KI5" t="n">
+        <v>12.97353</v>
+      </c>
+      <c r="KJ5" t="n">
+        <v>13.01914</v>
+      </c>
+      <c r="KK5" t="n">
+        <v>13.14233</v>
+      </c>
+      <c r="KL5" t="n">
+        <v>13.22052</v>
+      </c>
       <c r="KM5"/>
       <c r="KN5"/>
       <c r="KO5"/>
@@ -6999,14 +5676,28 @@
       <c r="TD5"/>
     </row>
     <row r="6">
-      <c r="A6"/>
-      <c r="B6"/>
+      <c r="A6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B6" t="n">
+        <v>881.0</v>
+      </c>
       <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
+      <c r="D6" t="s">
+        <v>532</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1780.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1799.0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>533</v>
+      </c>
+      <c r="H6" t="s">
+        <v>534</v>
+      </c>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
@@ -7297,16 +5988,36 @@
       <c r="KJ6"/>
       <c r="KK6"/>
       <c r="KL6"/>
-      <c r="KM6"/>
-      <c r="KN6"/>
-      <c r="KO6"/>
-      <c r="KP6"/>
-      <c r="KQ6"/>
-      <c r="KR6"/>
-      <c r="KS6"/>
-      <c r="KT6"/>
-      <c r="KU6"/>
-      <c r="KV6"/>
+      <c r="KM6" t="n">
+        <v>13.26436</v>
+      </c>
+      <c r="KN6" t="n">
+        <v>13.35648</v>
+      </c>
+      <c r="KO6" t="n">
+        <v>12.91489</v>
+      </c>
+      <c r="KP6" t="n">
+        <v>13.57773</v>
+      </c>
+      <c r="KQ6" t="n">
+        <v>13.35827</v>
+      </c>
+      <c r="KR6" t="n">
+        <v>12.65983</v>
+      </c>
+      <c r="KS6" t="n">
+        <v>12.68553</v>
+      </c>
+      <c r="KT6" t="n">
+        <v>13.7193</v>
+      </c>
+      <c r="KU6" t="n">
+        <v>14.13228</v>
+      </c>
+      <c r="KV6" t="n">
+        <v>13.06677</v>
+      </c>
       <c r="KW6"/>
       <c r="KX6"/>
       <c r="KY6"/>
@@ -7525,14 +6236,28 @@
       <c r="TD6"/>
     </row>
     <row r="7">
-      <c r="A7"/>
-      <c r="B7"/>
+      <c r="A7" t="s">
+        <v>529</v>
+      </c>
+      <c r="B7" t="n">
+        <v>882.0</v>
+      </c>
       <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
+      <c r="D7" t="s">
+        <v>532</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>533</v>
+      </c>
+      <c r="H7" t="s">
+        <v>534</v>
+      </c>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -7833,26 +6558,66 @@
       <c r="KT7"/>
       <c r="KU7"/>
       <c r="KV7"/>
-      <c r="KW7"/>
-      <c r="KX7"/>
-      <c r="KY7"/>
-      <c r="KZ7"/>
-      <c r="LA7"/>
-      <c r="LB7"/>
-      <c r="LC7"/>
-      <c r="LD7"/>
-      <c r="LE7"/>
-      <c r="LF7"/>
-      <c r="LG7"/>
-      <c r="LH7"/>
-      <c r="LI7"/>
-      <c r="LJ7"/>
-      <c r="LK7"/>
-      <c r="LL7"/>
-      <c r="LM7"/>
-      <c r="LN7"/>
-      <c r="LO7"/>
-      <c r="LP7"/>
+      <c r="KW7" t="n">
+        <v>11.91895</v>
+      </c>
+      <c r="KX7" t="n">
+        <v>11.77856</v>
+      </c>
+      <c r="KY7" t="n">
+        <v>12.3335</v>
+      </c>
+      <c r="KZ7" t="n">
+        <v>12.83697</v>
+      </c>
+      <c r="LA7" t="n">
+        <v>13.2961</v>
+      </c>
+      <c r="LB7" t="n">
+        <v>13.08729</v>
+      </c>
+      <c r="LC7" t="n">
+        <v>12.80246</v>
+      </c>
+      <c r="LD7" t="n">
+        <v>12.96008</v>
+      </c>
+      <c r="LE7" t="n">
+        <v>12.8123</v>
+      </c>
+      <c r="LF7" t="n">
+        <v>11.18443</v>
+      </c>
+      <c r="LG7" t="n">
+        <v>11.27269</v>
+      </c>
+      <c r="LH7" t="n">
+        <v>9.345794</v>
+      </c>
+      <c r="LI7" t="n">
+        <v>10.38098</v>
+      </c>
+      <c r="LJ7" t="n">
+        <v>10.36269</v>
+      </c>
+      <c r="LK7" t="n">
+        <v>11.27904</v>
+      </c>
+      <c r="LL7" t="n">
+        <v>11.83012</v>
+      </c>
+      <c r="LM7" t="n">
+        <v>13.46983</v>
+      </c>
+      <c r="LN7" t="n">
+        <v>13.29964</v>
+      </c>
+      <c r="LO7" t="n">
+        <v>12.85017</v>
+      </c>
+      <c r="LP7" t="n">
+        <v>13.17003</v>
+      </c>
       <c r="LQ7"/>
       <c r="LR7"/>
       <c r="LS7"/>
@@ -8051,14 +6816,28 @@
       <c r="TD7"/>
     </row>
     <row r="8">
-      <c r="A8"/>
-      <c r="B8"/>
+      <c r="A8" t="s">
+        <v>530</v>
+      </c>
+      <c r="B8" t="n">
+        <v>883.0</v>
+      </c>
       <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
+      <c r="D8" t="s">
+        <v>532</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>533</v>
+      </c>
+      <c r="H8" t="s">
+        <v>534</v>
+      </c>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -8379,46 +7158,126 @@
       <c r="LN8"/>
       <c r="LO8"/>
       <c r="LP8"/>
-      <c r="LQ8"/>
-      <c r="LR8"/>
-      <c r="LS8"/>
-      <c r="LT8"/>
-      <c r="LU8"/>
-      <c r="LV8"/>
-      <c r="LW8"/>
-      <c r="LX8"/>
-      <c r="LY8"/>
-      <c r="LZ8"/>
-      <c r="MA8"/>
-      <c r="MB8"/>
-      <c r="MC8"/>
-      <c r="MD8"/>
-      <c r="ME8"/>
-      <c r="MF8"/>
-      <c r="MG8"/>
-      <c r="MH8"/>
-      <c r="MI8"/>
-      <c r="MJ8"/>
-      <c r="MK8"/>
-      <c r="ML8"/>
-      <c r="MM8"/>
-      <c r="MN8"/>
-      <c r="MO8"/>
-      <c r="MP8"/>
-      <c r="MQ8"/>
-      <c r="MR8"/>
-      <c r="MS8"/>
-      <c r="MT8"/>
-      <c r="MU8"/>
-      <c r="MV8"/>
-      <c r="MW8"/>
-      <c r="MX8"/>
-      <c r="MY8"/>
-      <c r="MZ8"/>
-      <c r="NA8"/>
-      <c r="NB8"/>
-      <c r="NC8"/>
-      <c r="ND8"/>
+      <c r="LQ8" t="n">
+        <v>13.86963</v>
+      </c>
+      <c r="LR8" t="n">
+        <v>14.32049</v>
+      </c>
+      <c r="LS8" t="n">
+        <v>14.11034</v>
+      </c>
+      <c r="LT8" t="n">
+        <v>14.26941</v>
+      </c>
+      <c r="LU8" t="n">
+        <v>13.98993</v>
+      </c>
+      <c r="LV8" t="n">
+        <v>13.84083</v>
+      </c>
+      <c r="LW8" t="n">
+        <v>14.13028</v>
+      </c>
+      <c r="LX8" t="n">
+        <v>13.91982</v>
+      </c>
+      <c r="LY8" t="n">
+        <v>13.80072</v>
+      </c>
+      <c r="LZ8" t="n">
+        <v>13.90047</v>
+      </c>
+      <c r="MA8" t="n">
+        <v>14.01935</v>
+      </c>
+      <c r="MB8" t="n">
+        <v>13.74948</v>
+      </c>
+      <c r="MC8" t="n">
+        <v>13.95089</v>
+      </c>
+      <c r="MD8" t="n">
+        <v>13.86963</v>
+      </c>
+      <c r="ME8" t="n">
+        <v>13.70051</v>
+      </c>
+      <c r="MF8" t="n">
+        <v>13.76084</v>
+      </c>
+      <c r="MG8" t="n">
+        <v>13.81025</v>
+      </c>
+      <c r="MH8" t="n">
+        <v>13.81025</v>
+      </c>
+      <c r="MI8" t="n">
+        <v>13.7193</v>
+      </c>
+      <c r="MJ8" t="n">
+        <v>13.62027</v>
+      </c>
+      <c r="MK8" t="n">
+        <v>13.52997</v>
+      </c>
+      <c r="ML8" t="n">
+        <v>13.59989</v>
+      </c>
+      <c r="MM8" t="n">
+        <v>13.7193</v>
+      </c>
+      <c r="MN8" t="n">
+        <v>13.81025</v>
+      </c>
+      <c r="MO8" t="n">
+        <v>13.74948</v>
+      </c>
+      <c r="MP8" t="n">
+        <v>13.86001</v>
+      </c>
+      <c r="MQ8" t="n">
+        <v>13.84083</v>
+      </c>
+      <c r="MR8" t="n">
+        <v>13.80072</v>
+      </c>
+      <c r="MS8" t="n">
+        <v>13.81025</v>
+      </c>
+      <c r="MT8" t="n">
+        <v>13.7893</v>
+      </c>
+      <c r="MU8" t="n">
+        <v>13.7099</v>
+      </c>
+      <c r="MV8" t="n">
+        <v>13.50986</v>
+      </c>
+      <c r="MW8" t="n">
+        <v>13.62027</v>
+      </c>
+      <c r="MX8" t="n">
+        <v>13.44086</v>
+      </c>
+      <c r="MY8" t="n">
+        <v>13.34935</v>
+      </c>
+      <c r="MZ8" t="n">
+        <v>13.48982</v>
+      </c>
+      <c r="NA8" t="n">
+        <v>13.59065</v>
+      </c>
+      <c r="NB8" t="n">
+        <v>13.53913</v>
+      </c>
+      <c r="NC8" t="n">
+        <v>13.44086</v>
+      </c>
+      <c r="ND8" t="n">
+        <v>13.34045</v>
+      </c>
       <c r="NE8"/>
       <c r="NF8"/>
       <c r="NG8"/>
@@ -8577,14 +7436,28 @@
       <c r="TD8"/>
     </row>
     <row r="9">
-      <c r="A9"/>
-      <c r="B9"/>
+      <c r="A9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B9" t="n">
+        <v>884.0</v>
+      </c>
       <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
+      <c r="D9" t="s">
+        <v>532</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>533</v>
+      </c>
+      <c r="H9" t="s">
+        <v>534</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -8945,26 +7818,66 @@
       <c r="NB9"/>
       <c r="NC9"/>
       <c r="ND9"/>
-      <c r="NE9"/>
-      <c r="NF9"/>
-      <c r="NG9"/>
-      <c r="NH9"/>
-      <c r="NI9"/>
-      <c r="NJ9"/>
-      <c r="NK9"/>
-      <c r="NL9"/>
-      <c r="NM9"/>
-      <c r="NN9"/>
-      <c r="NO9"/>
-      <c r="NP9"/>
-      <c r="NQ9"/>
-      <c r="NR9"/>
-      <c r="NS9"/>
-      <c r="NT9"/>
-      <c r="NU9"/>
-      <c r="NV9"/>
-      <c r="NW9"/>
-      <c r="NX9"/>
+      <c r="NE9" t="n">
+        <v>13.36005</v>
+      </c>
+      <c r="NF9" t="n">
+        <v>13.57958</v>
+      </c>
+      <c r="NG9" t="n">
+        <v>13.50074</v>
+      </c>
+      <c r="NH9" t="n">
+        <v>13.50074</v>
+      </c>
+      <c r="NI9" t="n">
+        <v>13.55932</v>
+      </c>
+      <c r="NJ9" t="n">
+        <v>13.57958</v>
+      </c>
+      <c r="NK9" t="n">
+        <v>13.59989</v>
+      </c>
+      <c r="NL9" t="n">
+        <v>13.59065</v>
+      </c>
+      <c r="NM9" t="n">
+        <v>13.6407</v>
+      </c>
+      <c r="NN9" t="n">
+        <v>13.70051</v>
+      </c>
+      <c r="NO9" t="n">
+        <v>13.67054</v>
+      </c>
+      <c r="NP9" t="n">
+        <v>13.65001</v>
+      </c>
+      <c r="NQ9" t="n">
+        <v>13.67054</v>
+      </c>
+      <c r="NR9" t="n">
+        <v>20.52124</v>
+      </c>
+      <c r="NS9" t="n">
+        <v>20.61006</v>
+      </c>
+      <c r="NT9" t="n">
+        <v>20.72109</v>
+      </c>
+      <c r="NU9" t="n">
+        <v>20.6441</v>
+      </c>
+      <c r="NV9" t="n">
+        <v>20.63983</v>
+      </c>
+      <c r="NW9" t="n">
+        <v>20.62706</v>
+      </c>
+      <c r="NX9" t="n">
+        <v>20.61006</v>
+      </c>
       <c r="NY9"/>
       <c r="NZ9"/>
       <c r="OA9"/>
@@ -9120,24 +8033,24 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>716</v>
+        <v>535</v>
       </c>
       <c r="C1" t="s">
-        <v>717</v>
+        <v>536</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>718</v>
+        <v>537</v>
       </c>
       <c r="F1" t="s">
-        <v>719</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B2" t="n">
         <v>1680.0</v>
@@ -9146,7 +8059,7 @@
         <v>1719.0</v>
       </c>
       <c r="D2" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E2" t="n">
         <v>1680.0</v>
@@ -9157,7 +8070,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B3" t="n">
         <v>1680.0</v>
@@ -9166,7 +8079,7 @@
         <v>1719.0</v>
       </c>
       <c r="D3" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E3" t="n">
         <v>1681.0</v>
@@ -9177,7 +8090,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B4" t="n">
         <v>1680.0</v>
@@ -9186,7 +8099,7 @@
         <v>1719.0</v>
       </c>
       <c r="D4" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
         <v>1682.0</v>
@@ -9197,7 +8110,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B5" t="n">
         <v>1680.0</v>
@@ -9206,7 +8119,7 @@
         <v>1719.0</v>
       </c>
       <c r="D5" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E5" t="n">
         <v>1683.0</v>
@@ -9217,7 +8130,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B6" t="n">
         <v>1680.0</v>
@@ -9226,7 +8139,7 @@
         <v>1719.0</v>
       </c>
       <c r="D6" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E6" t="n">
         <v>1684.0</v>
@@ -9237,7 +8150,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B7" t="n">
         <v>1680.0</v>
@@ -9246,7 +8159,7 @@
         <v>1719.0</v>
       </c>
       <c r="D7" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E7" t="n">
         <v>1685.0</v>
@@ -9257,7 +8170,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B8" t="n">
         <v>1680.0</v>
@@ -9266,7 +8179,7 @@
         <v>1719.0</v>
       </c>
       <c r="D8" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E8" t="n">
         <v>1687.0</v>
@@ -9277,7 +8190,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B9" t="n">
         <v>1680.0</v>
@@ -9286,7 +8199,7 @@
         <v>1719.0</v>
       </c>
       <c r="D9" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E9" t="n">
         <v>1688.0</v>
@@ -9297,7 +8210,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B10" t="n">
         <v>1680.0</v>
@@ -9306,7 +8219,7 @@
         <v>1719.0</v>
       </c>
       <c r="D10" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E10" t="n">
         <v>1689.0</v>
@@ -9317,7 +8230,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B11" t="n">
         <v>1680.0</v>
@@ -9326,7 +8239,7 @@
         <v>1719.0</v>
       </c>
       <c r="D11" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E11" t="n">
         <v>1690.0</v>
@@ -9337,7 +8250,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B12" t="n">
         <v>1680.0</v>
@@ -9346,7 +8259,7 @@
         <v>1719.0</v>
       </c>
       <c r="D12" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E12" t="n">
         <v>1691.0</v>
@@ -9357,7 +8270,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B13" t="n">
         <v>1680.0</v>
@@ -9366,7 +8279,7 @@
         <v>1719.0</v>
       </c>
       <c r="D13" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E13" t="n">
         <v>1692.0</v>
@@ -9377,7 +8290,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B14" t="n">
         <v>1680.0</v>
@@ -9386,7 +8299,7 @@
         <v>1719.0</v>
       </c>
       <c r="D14" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E14" t="n">
         <v>1693.0</v>
@@ -9397,7 +8310,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B15" t="n">
         <v>1680.0</v>
@@ -9406,7 +8319,7 @@
         <v>1719.0</v>
       </c>
       <c r="D15" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E15" t="n">
         <v>1694.0</v>
@@ -9417,7 +8330,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B16" t="n">
         <v>1680.0</v>
@@ -9426,7 +8339,7 @@
         <v>1719.0</v>
       </c>
       <c r="D16" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E16" t="n">
         <v>1695.0</v>
@@ -9437,7 +8350,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B17" t="n">
         <v>1680.0</v>
@@ -9446,7 +8359,7 @@
         <v>1719.0</v>
       </c>
       <c r="D17" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E17" t="n">
         <v>1696.0</v>
@@ -9457,7 +8370,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B18" t="n">
         <v>1680.0</v>
@@ -9466,7 +8379,7 @@
         <v>1719.0</v>
       </c>
       <c r="D18" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E18" t="n">
         <v>1697.0</v>
@@ -9477,7 +8390,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B19" t="n">
         <v>1680.0</v>
@@ -9486,7 +8399,7 @@
         <v>1719.0</v>
       </c>
       <c r="D19" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E19" t="n">
         <v>1698.0</v>
@@ -9497,7 +8410,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B20" t="n">
         <v>1680.0</v>
@@ -9506,7 +8419,7 @@
         <v>1719.0</v>
       </c>
       <c r="D20" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E20" t="n">
         <v>1699.0</v>
@@ -9517,7 +8430,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B21" t="n">
         <v>1680.0</v>
@@ -9526,7 +8439,7 @@
         <v>1719.0</v>
       </c>
       <c r="D21" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E21" t="n">
         <v>1700.0</v>
@@ -9537,7 +8450,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B22" t="n">
         <v>1680.0</v>
@@ -9546,7 +8459,7 @@
         <v>1719.0</v>
       </c>
       <c r="D22" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E22" t="n">
         <v>1701.0</v>
@@ -9557,7 +8470,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B23" t="n">
         <v>1680.0</v>
@@ -9566,7 +8479,7 @@
         <v>1719.0</v>
       </c>
       <c r="D23" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E23" t="n">
         <v>1702.0</v>
@@ -9577,7 +8490,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B24" t="n">
         <v>1680.0</v>
@@ -9586,7 +8499,7 @@
         <v>1719.0</v>
       </c>
       <c r="D24" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E24" t="n">
         <v>1703.0</v>
@@ -9597,7 +8510,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B25" t="n">
         <v>1680.0</v>
@@ -9606,7 +8519,7 @@
         <v>1719.0</v>
       </c>
       <c r="D25" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E25" t="n">
         <v>1704.0</v>
@@ -9617,7 +8530,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B26" t="n">
         <v>1680.0</v>
@@ -9626,7 +8539,7 @@
         <v>1719.0</v>
       </c>
       <c r="D26" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E26" t="n">
         <v>1705.0</v>
@@ -9637,7 +8550,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B27" t="n">
         <v>1680.0</v>
@@ -9646,7 +8559,7 @@
         <v>1719.0</v>
       </c>
       <c r="D27" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E27" t="n">
         <v>1706.0</v>
@@ -9657,7 +8570,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B28" t="n">
         <v>1680.0</v>
@@ -9666,7 +8579,7 @@
         <v>1719.0</v>
       </c>
       <c r="D28" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E28" t="n">
         <v>1707.0</v>
@@ -9677,7 +8590,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B29" t="n">
         <v>1680.0</v>
@@ -9686,7 +8599,7 @@
         <v>1719.0</v>
       </c>
       <c r="D29" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E29" t="n">
         <v>1708.0</v>
@@ -9697,7 +8610,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B30" t="n">
         <v>1680.0</v>
@@ -9706,7 +8619,7 @@
         <v>1719.0</v>
       </c>
       <c r="D30" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E30" t="n">
         <v>1709.0</v>
@@ -9717,7 +8630,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B31" t="n">
         <v>1680.0</v>
@@ -9726,7 +8639,7 @@
         <v>1719.0</v>
       </c>
       <c r="D31" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E31" t="n">
         <v>1710.0</v>
@@ -9737,7 +8650,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B32" t="n">
         <v>1680.0</v>
@@ -9746,7 +8659,7 @@
         <v>1719.0</v>
       </c>
       <c r="D32" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E32" t="n">
         <v>1711.0</v>
@@ -9757,7 +8670,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B33" t="n">
         <v>1680.0</v>
@@ -9766,7 +8679,7 @@
         <v>1719.0</v>
       </c>
       <c r="D33" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E33" t="n">
         <v>1712.0</v>
@@ -9777,7 +8690,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B34" t="n">
         <v>1680.0</v>
@@ -9786,7 +8699,7 @@
         <v>1719.0</v>
       </c>
       <c r="D34" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E34" t="n">
         <v>1713.0</v>
@@ -9797,7 +8710,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B35" t="n">
         <v>1680.0</v>
@@ -9806,7 +8719,7 @@
         <v>1719.0</v>
       </c>
       <c r="D35" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E35" t="n">
         <v>1714.0</v>
@@ -9817,7 +8730,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B36" t="n">
         <v>1680.0</v>
@@ -9826,7 +8739,7 @@
         <v>1719.0</v>
       </c>
       <c r="D36" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E36" t="n">
         <v>1715.0</v>
@@ -9837,7 +8750,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B37" t="n">
         <v>1680.0</v>
@@ -9846,7 +8759,7 @@
         <v>1719.0</v>
       </c>
       <c r="D37" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E37" t="n">
         <v>1716.0</v>
@@ -9857,7 +8770,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B38" t="n">
         <v>1680.0</v>
@@ -9866,7 +8779,7 @@
         <v>1719.0</v>
       </c>
       <c r="D38" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E38" t="n">
         <v>1717.0</v>
@@ -9877,7 +8790,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B39" t="n">
         <v>1680.0</v>
@@ -9886,7 +8799,7 @@
         <v>1719.0</v>
       </c>
       <c r="D39" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E39" t="n">
         <v>1718.0</v>
@@ -9897,7 +8810,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B40" t="n">
         <v>1680.0</v>
@@ -9906,7 +8819,7 @@
         <v>1719.0</v>
       </c>
       <c r="D40" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E40" t="n">
         <v>1719.0</v>
@@ -9917,7 +8830,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B41" t="n">
         <v>1720.0</v>
@@ -9926,7 +8839,7 @@
         <v>1739.0</v>
       </c>
       <c r="D41" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E41" t="n">
         <v>1720.0</v>
@@ -9937,7 +8850,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B42" t="n">
         <v>1720.0</v>
@@ -9946,7 +8859,7 @@
         <v>1739.0</v>
       </c>
       <c r="D42" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E42" t="n">
         <v>1721.0</v>
@@ -9957,7 +8870,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B43" t="n">
         <v>1720.0</v>
@@ -9966,7 +8879,7 @@
         <v>1739.0</v>
       </c>
       <c r="D43" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E43" t="n">
         <v>1722.0</v>
@@ -9977,7 +8890,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B44" t="n">
         <v>1720.0</v>
@@ -9986,7 +8899,7 @@
         <v>1739.0</v>
       </c>
       <c r="D44" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E44" t="n">
         <v>1723.0</v>
@@ -9997,7 +8910,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B45" t="n">
         <v>1720.0</v>
@@ -10006,7 +8919,7 @@
         <v>1739.0</v>
       </c>
       <c r="D45" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E45" t="n">
         <v>1724.0</v>
@@ -10017,7 +8930,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B46" t="n">
         <v>1720.0</v>
@@ -10026,7 +8939,7 @@
         <v>1739.0</v>
       </c>
       <c r="D46" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E46" t="n">
         <v>1725.0</v>
@@ -10037,7 +8950,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B47" t="n">
         <v>1720.0</v>
@@ -10046,7 +8959,7 @@
         <v>1739.0</v>
       </c>
       <c r="D47" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E47" t="n">
         <v>1726.0</v>
@@ -10057,7 +8970,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B48" t="n">
         <v>1720.0</v>
@@ -10066,7 +8979,7 @@
         <v>1739.0</v>
       </c>
       <c r="D48" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E48" t="n">
         <v>1727.0</v>
@@ -10077,7 +8990,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B49" t="n">
         <v>1720.0</v>
@@ -10086,7 +8999,7 @@
         <v>1739.0</v>
       </c>
       <c r="D49" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E49" t="n">
         <v>1728.0</v>
@@ -10097,7 +9010,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B50" t="n">
         <v>1720.0</v>
@@ -10106,7 +9019,7 @@
         <v>1739.0</v>
       </c>
       <c r="D50" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E50" t="n">
         <v>1729.0</v>
@@ -10117,7 +9030,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B51" t="n">
         <v>1720.0</v>
@@ -10126,7 +9039,7 @@
         <v>1739.0</v>
       </c>
       <c r="D51" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E51" t="n">
         <v>1730.0</v>
@@ -10137,7 +9050,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B52" t="n">
         <v>1720.0</v>
@@ -10146,7 +9059,7 @@
         <v>1739.0</v>
       </c>
       <c r="D52" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E52" t="n">
         <v>1731.0</v>
@@ -10157,7 +9070,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B53" t="n">
         <v>1720.0</v>
@@ -10166,7 +9079,7 @@
         <v>1739.0</v>
       </c>
       <c r="D53" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E53" t="n">
         <v>1732.0</v>
@@ -10177,7 +9090,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B54" t="n">
         <v>1720.0</v>
@@ -10186,7 +9099,7 @@
         <v>1739.0</v>
       </c>
       <c r="D54" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E54" t="n">
         <v>1733.0</v>
@@ -10197,7 +9110,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B55" t="n">
         <v>1720.0</v>
@@ -10206,7 +9119,7 @@
         <v>1739.0</v>
       </c>
       <c r="D55" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E55" t="n">
         <v>1734.0</v>
@@ -10217,7 +9130,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B56" t="n">
         <v>1720.0</v>
@@ -10226,7 +9139,7 @@
         <v>1739.0</v>
       </c>
       <c r="D56" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E56" t="n">
         <v>1735.0</v>
@@ -10237,7 +9150,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B57" t="n">
         <v>1720.0</v>
@@ -10246,7 +9159,7 @@
         <v>1739.0</v>
       </c>
       <c r="D57" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E57" t="n">
         <v>1736.0</v>
@@ -10257,7 +9170,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B58" t="n">
         <v>1720.0</v>
@@ -10266,7 +9179,7 @@
         <v>1739.0</v>
       </c>
       <c r="D58" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E58" t="n">
         <v>1737.0</v>
@@ -10277,7 +9190,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B59" t="n">
         <v>1720.0</v>
@@ -10286,7 +9199,7 @@
         <v>1739.0</v>
       </c>
       <c r="D59" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E59" t="n">
         <v>1738.0</v>
@@ -10297,7 +9210,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B60" t="n">
         <v>1720.0</v>
@@ -10306,7 +9219,7 @@
         <v>1739.0</v>
       </c>
       <c r="D60" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E60" t="n">
         <v>1739.0</v>
@@ -10317,7 +9230,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B61" t="n">
         <v>1740.0</v>
@@ -10326,7 +9239,7 @@
         <v>1759.0</v>
       </c>
       <c r="D61" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E61" t="n">
         <v>1740.0</v>
@@ -10337,7 +9250,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B62" t="n">
         <v>1740.0</v>
@@ -10346,7 +9259,7 @@
         <v>1759.0</v>
       </c>
       <c r="D62" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E62" t="n">
         <v>1741.0</v>
@@ -10357,7 +9270,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B63" t="n">
         <v>1740.0</v>
@@ -10366,7 +9279,7 @@
         <v>1759.0</v>
       </c>
       <c r="D63" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E63" t="n">
         <v>1742.0</v>
@@ -10377,7 +9290,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B64" t="n">
         <v>1740.0</v>
@@ -10386,7 +9299,7 @@
         <v>1759.0</v>
       </c>
       <c r="D64" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E64" t="n">
         <v>1743.0</v>
@@ -10397,7 +9310,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B65" t="n">
         <v>1740.0</v>
@@ -10406,7 +9319,7 @@
         <v>1759.0</v>
       </c>
       <c r="D65" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E65" t="n">
         <v>1744.0</v>
@@ -10417,7 +9330,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B66" t="n">
         <v>1740.0</v>
@@ -10426,7 +9339,7 @@
         <v>1759.0</v>
       </c>
       <c r="D66" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E66" t="n">
         <v>1745.0</v>
@@ -10437,7 +9350,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B67" t="n">
         <v>1740.0</v>
@@ -10446,7 +9359,7 @@
         <v>1759.0</v>
       </c>
       <c r="D67" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E67" t="n">
         <v>1746.0</v>
@@ -10457,7 +9370,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B68" t="n">
         <v>1740.0</v>
@@ -10466,7 +9379,7 @@
         <v>1759.0</v>
       </c>
       <c r="D68" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E68" t="n">
         <v>1747.0</v>
@@ -10477,7 +9390,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B69" t="n">
         <v>1740.0</v>
@@ -10486,7 +9399,7 @@
         <v>1759.0</v>
       </c>
       <c r="D69" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E69" t="n">
         <v>1748.0</v>
@@ -10497,7 +9410,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B70" t="n">
         <v>1740.0</v>
@@ -10506,7 +9419,7 @@
         <v>1759.0</v>
       </c>
       <c r="D70" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E70" t="n">
         <v>1749.0</v>
@@ -10517,7 +9430,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B71" t="n">
         <v>1740.0</v>
@@ -10526,7 +9439,7 @@
         <v>1759.0</v>
       </c>
       <c r="D71" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E71" t="n">
         <v>1750.0</v>
@@ -10537,7 +9450,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B72" t="n">
         <v>1740.0</v>
@@ -10546,7 +9459,7 @@
         <v>1759.0</v>
       </c>
       <c r="D72" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E72" t="n">
         <v>1751.0</v>
@@ -10557,7 +9470,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B73" t="n">
         <v>1740.0</v>
@@ -10566,7 +9479,7 @@
         <v>1759.0</v>
       </c>
       <c r="D73" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E73" t="n">
         <v>1752.0</v>
@@ -10577,7 +9490,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B74" t="n">
         <v>1740.0</v>
@@ -10586,7 +9499,7 @@
         <v>1759.0</v>
       </c>
       <c r="D74" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E74" t="n">
         <v>1753.0</v>
@@ -10597,7 +9510,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B75" t="n">
         <v>1740.0</v>
@@ -10606,7 +9519,7 @@
         <v>1759.0</v>
       </c>
       <c r="D75" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E75" t="n">
         <v>1754.0</v>
@@ -10617,7 +9530,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B76" t="n">
         <v>1740.0</v>
@@ -10626,7 +9539,7 @@
         <v>1759.0</v>
       </c>
       <c r="D76" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E76" t="n">
         <v>1755.0</v>
@@ -10637,7 +9550,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B77" t="n">
         <v>1740.0</v>
@@ -10646,7 +9559,7 @@
         <v>1759.0</v>
       </c>
       <c r="D77" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E77" t="n">
         <v>1756.0</v>
@@ -10657,7 +9570,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B78" t="n">
         <v>1740.0</v>
@@ -10666,7 +9579,7 @@
         <v>1759.0</v>
       </c>
       <c r="D78" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E78" t="n">
         <v>1757.0</v>
@@ -10677,7 +9590,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B79" t="n">
         <v>1740.0</v>
@@ -10686,7 +9599,7 @@
         <v>1759.0</v>
       </c>
       <c r="D79" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E79" t="n">
         <v>1758.0</v>
@@ -10697,7 +9610,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B80" t="n">
         <v>1740.0</v>
@@ -10706,7 +9619,7 @@
         <v>1759.0</v>
       </c>
       <c r="D80" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E80" t="n">
         <v>1759.0</v>
@@ -10717,7 +9630,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B81" t="n">
         <v>1760.0</v>
@@ -10726,7 +9639,7 @@
         <v>1779.0</v>
       </c>
       <c r="D81" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E81" t="n">
         <v>1760.0</v>
@@ -10737,7 +9650,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B82" t="n">
         <v>1760.0</v>
@@ -10746,7 +9659,7 @@
         <v>1779.0</v>
       </c>
       <c r="D82" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E82" t="n">
         <v>1761.0</v>
@@ -10757,7 +9670,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B83" t="n">
         <v>1760.0</v>
@@ -10766,7 +9679,7 @@
         <v>1779.0</v>
       </c>
       <c r="D83" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E83" t="n">
         <v>1762.0</v>
@@ -10777,7 +9690,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B84" t="n">
         <v>1760.0</v>
@@ -10786,7 +9699,7 @@
         <v>1779.0</v>
       </c>
       <c r="D84" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E84" t="n">
         <v>1763.0</v>
@@ -10797,7 +9710,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B85" t="n">
         <v>1760.0</v>
@@ -10806,7 +9719,7 @@
         <v>1779.0</v>
       </c>
       <c r="D85" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E85" t="n">
         <v>1764.0</v>
@@ -10817,7 +9730,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B86" t="n">
         <v>1760.0</v>
@@ -10826,7 +9739,7 @@
         <v>1779.0</v>
       </c>
       <c r="D86" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E86" t="n">
         <v>1765.0</v>
@@ -10837,7 +9750,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B87" t="n">
         <v>1760.0</v>
@@ -10846,7 +9759,7 @@
         <v>1779.0</v>
       </c>
       <c r="D87" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E87" t="n">
         <v>1766.0</v>
@@ -10857,7 +9770,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B88" t="n">
         <v>1760.0</v>
@@ -10866,7 +9779,7 @@
         <v>1779.0</v>
       </c>
       <c r="D88" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E88" t="n">
         <v>1767.0</v>
@@ -10877,7 +9790,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B89" t="n">
         <v>1760.0</v>
@@ -10886,7 +9799,7 @@
         <v>1779.0</v>
       </c>
       <c r="D89" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E89" t="n">
         <v>1768.0</v>
@@ -10897,7 +9810,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B90" t="n">
         <v>1760.0</v>
@@ -10906,7 +9819,7 @@
         <v>1779.0</v>
       </c>
       <c r="D90" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E90" t="n">
         <v>1769.0</v>
@@ -10917,7 +9830,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B91" t="n">
         <v>1760.0</v>
@@ -10926,7 +9839,7 @@
         <v>1779.0</v>
       </c>
       <c r="D91" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E91" t="n">
         <v>1770.0</v>
@@ -10937,7 +9850,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B92" t="n">
         <v>1760.0</v>
@@ -10946,7 +9859,7 @@
         <v>1779.0</v>
       </c>
       <c r="D92" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
         <v>1771.0</v>
@@ -10957,7 +9870,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B93" t="n">
         <v>1760.0</v>
@@ -10966,7 +9879,7 @@
         <v>1779.0</v>
       </c>
       <c r="D93" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E93" t="n">
         <v>1772.0</v>
@@ -10977,7 +9890,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B94" t="n">
         <v>1760.0</v>
@@ -10986,7 +9899,7 @@
         <v>1779.0</v>
       </c>
       <c r="D94" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E94" t="n">
         <v>1773.0</v>
@@ -10997,7 +9910,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B95" t="n">
         <v>1760.0</v>
@@ -11006,7 +9919,7 @@
         <v>1779.0</v>
       </c>
       <c r="D95" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E95" t="n">
         <v>1774.0</v>
@@ -11017,7 +9930,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B96" t="n">
         <v>1760.0</v>
@@ -11026,7 +9939,7 @@
         <v>1779.0</v>
       </c>
       <c r="D96" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E96" t="n">
         <v>1775.0</v>
@@ -11037,7 +9950,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B97" t="n">
         <v>1760.0</v>
@@ -11046,7 +9959,7 @@
         <v>1779.0</v>
       </c>
       <c r="D97" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E97" t="n">
         <v>1776.0</v>
@@ -11057,7 +9970,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B98" t="n">
         <v>1760.0</v>
@@ -11066,7 +9979,7 @@
         <v>1779.0</v>
       </c>
       <c r="D98" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E98" t="n">
         <v>1777.0</v>
@@ -11077,7 +9990,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B99" t="n">
         <v>1760.0</v>
@@ -11086,7 +9999,7 @@
         <v>1779.0</v>
       </c>
       <c r="D99" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E99" t="n">
         <v>1778.0</v>
@@ -11097,7 +10010,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B100" t="n">
         <v>1760.0</v>
@@ -11106,7 +10019,7 @@
         <v>1779.0</v>
       </c>
       <c r="D100" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E100" t="n">
         <v>1779.0</v>
@@ -11117,7 +10030,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B101" t="n">
         <v>1760.0</v>
@@ -11126,7 +10039,7 @@
         <v>1779.0</v>
       </c>
       <c r="D101" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E101" t="n">
         <v>1780.0</v>
@@ -11137,7 +10050,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B102" t="n">
         <v>1760.0</v>
@@ -11146,7 +10059,7 @@
         <v>1779.0</v>
       </c>
       <c r="D102" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E102" t="n">
         <v>1781.0</v>
@@ -11157,7 +10070,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B103" t="n">
         <v>1760.0</v>
@@ -11166,7 +10079,7 @@
         <v>1779.0</v>
       </c>
       <c r="D103" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E103" t="n">
         <v>1782.0</v>
@@ -11177,7 +10090,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B104" t="n">
         <v>1760.0</v>
@@ -11186,7 +10099,7 @@
         <v>1779.0</v>
       </c>
       <c r="D104" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E104" t="n">
         <v>1783.0</v>
@@ -11197,7 +10110,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B105" t="n">
         <v>1760.0</v>
@@ -11206,7 +10119,7 @@
         <v>1779.0</v>
       </c>
       <c r="D105" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E105" t="n">
         <v>1784.0</v>
@@ -11217,7 +10130,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B106" t="n">
         <v>1760.0</v>
@@ -11226,7 +10139,7 @@
         <v>1779.0</v>
       </c>
       <c r="D106" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E106" t="n">
         <v>1785.0</v>
@@ -11237,7 +10150,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B107" t="n">
         <v>1760.0</v>
@@ -11246,7 +10159,7 @@
         <v>1779.0</v>
       </c>
       <c r="D107" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E107" t="n">
         <v>1786.0</v>
@@ -11257,7 +10170,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B108" t="n">
         <v>1760.0</v>
@@ -11266,7 +10179,7 @@
         <v>1779.0</v>
       </c>
       <c r="D108" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E108" t="n">
         <v>1787.0</v>
@@ -11277,7 +10190,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B109" t="n">
         <v>1760.0</v>
@@ -11286,7 +10199,7 @@
         <v>1779.0</v>
       </c>
       <c r="D109" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E109" t="n">
         <v>1788.0</v>
@@ -11297,7 +10210,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B110" t="n">
         <v>1760.0</v>
@@ -11306,7 +10219,7 @@
         <v>1779.0</v>
       </c>
       <c r="D110" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E110" t="n">
         <v>1789.0</v>
@@ -11317,7 +10230,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B111" t="n">
         <v>1780.0</v>
@@ -11326,7 +10239,7 @@
         <v>1799.0</v>
       </c>
       <c r="D111" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E111" t="n">
         <v>1790.0</v>
@@ -11337,7 +10250,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B112" t="n">
         <v>1780.0</v>
@@ -11346,7 +10259,7 @@
         <v>1799.0</v>
       </c>
       <c r="D112" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E112" t="n">
         <v>1791.0</v>
@@ -11357,7 +10270,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B113" t="n">
         <v>1780.0</v>
@@ -11366,7 +10279,7 @@
         <v>1799.0</v>
       </c>
       <c r="D113" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E113" t="n">
         <v>1792.0</v>
@@ -11377,7 +10290,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B114" t="n">
         <v>1780.0</v>
@@ -11386,7 +10299,7 @@
         <v>1799.0</v>
       </c>
       <c r="D114" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E114" t="n">
         <v>1793.0</v>
@@ -11397,7 +10310,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B115" t="n">
         <v>1780.0</v>
@@ -11406,7 +10319,7 @@
         <v>1799.0</v>
       </c>
       <c r="D115" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E115" t="n">
         <v>1794.0</v>
@@ -11417,7 +10330,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B116" t="n">
         <v>1780.0</v>
@@ -11426,7 +10339,7 @@
         <v>1799.0</v>
       </c>
       <c r="D116" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E116" t="n">
         <v>1795.0</v>
@@ -11437,7 +10350,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B117" t="n">
         <v>1780.0</v>
@@ -11446,7 +10359,7 @@
         <v>1799.0</v>
       </c>
       <c r="D117" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E117" t="n">
         <v>1796.0</v>
@@ -11457,7 +10370,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B118" t="n">
         <v>1780.0</v>
@@ -11466,7 +10379,7 @@
         <v>1799.0</v>
       </c>
       <c r="D118" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E118" t="n">
         <v>1797.0</v>
@@ -11477,7 +10390,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B119" t="n">
         <v>1780.0</v>
@@ -11486,7 +10399,7 @@
         <v>1799.0</v>
       </c>
       <c r="D119" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E119" t="n">
         <v>1798.0</v>
@@ -11497,7 +10410,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B120" t="n">
         <v>1780.0</v>
@@ -11506,7 +10419,7 @@
         <v>1799.0</v>
       </c>
       <c r="D120" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E120" t="n">
         <v>1799.0</v>
@@ -11517,7 +10430,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B121" t="n">
         <v>1800.0</v>
@@ -11526,7 +10439,7 @@
         <v>1819.0</v>
       </c>
       <c r="D121" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E121" t="n">
         <v>1800.0</v>
@@ -11537,7 +10450,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B122" t="n">
         <v>1800.0</v>
@@ -11546,7 +10459,7 @@
         <v>1819.0</v>
       </c>
       <c r="D122" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E122" t="n">
         <v>1801.0</v>
@@ -11557,7 +10470,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B123" t="n">
         <v>1800.0</v>
@@ -11566,7 +10479,7 @@
         <v>1819.0</v>
       </c>
       <c r="D123" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E123" t="n">
         <v>1802.0</v>
@@ -11577,7 +10490,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B124" t="n">
         <v>1800.0</v>
@@ -11586,7 +10499,7 @@
         <v>1819.0</v>
       </c>
       <c r="D124" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E124" t="n">
         <v>1803.0</v>
@@ -11597,7 +10510,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B125" t="n">
         <v>1800.0</v>
@@ -11606,7 +10519,7 @@
         <v>1819.0</v>
       </c>
       <c r="D125" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E125" t="n">
         <v>1804.0</v>
@@ -11617,7 +10530,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B126" t="n">
         <v>1800.0</v>
@@ -11626,7 +10539,7 @@
         <v>1819.0</v>
       </c>
       <c r="D126" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E126" t="n">
         <v>1805.0</v>
@@ -11637,7 +10550,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B127" t="n">
         <v>1800.0</v>
@@ -11646,7 +10559,7 @@
         <v>1819.0</v>
       </c>
       <c r="D127" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E127" t="n">
         <v>1806.0</v>
@@ -11657,7 +10570,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B128" t="n">
         <v>1800.0</v>
@@ -11666,7 +10579,7 @@
         <v>1819.0</v>
       </c>
       <c r="D128" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E128" t="n">
         <v>1807.0</v>
@@ -11677,7 +10590,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B129" t="n">
         <v>1800.0</v>
@@ -11686,7 +10599,7 @@
         <v>1819.0</v>
       </c>
       <c r="D129" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E129" t="n">
         <v>1808.0</v>
@@ -11697,7 +10610,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B130" t="n">
         <v>1800.0</v>
@@ -11706,7 +10619,7 @@
         <v>1819.0</v>
       </c>
       <c r="D130" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E130" t="n">
         <v>1809.0</v>
@@ -11717,7 +10630,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B131" t="n">
         <v>1800.0</v>
@@ -11726,7 +10639,7 @@
         <v>1819.0</v>
       </c>
       <c r="D131" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E131" t="n">
         <v>1810.0</v>
@@ -11737,7 +10650,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B132" t="n">
         <v>1800.0</v>
@@ -11746,7 +10659,7 @@
         <v>1819.0</v>
       </c>
       <c r="D132" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E132" t="n">
         <v>1811.0</v>
@@ -11757,7 +10670,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B133" t="n">
         <v>1800.0</v>
@@ -11766,7 +10679,7 @@
         <v>1819.0</v>
       </c>
       <c r="D133" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E133" t="n">
         <v>1812.0</v>
@@ -11777,7 +10690,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B134" t="n">
         <v>1800.0</v>
@@ -11786,7 +10699,7 @@
         <v>1819.0</v>
       </c>
       <c r="D134" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E134" t="n">
         <v>1813.0</v>
@@ -11797,7 +10710,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B135" t="n">
         <v>1800.0</v>
@@ -11806,7 +10719,7 @@
         <v>1819.0</v>
       </c>
       <c r="D135" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E135" t="n">
         <v>1814.0</v>
@@ -11817,7 +10730,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B136" t="n">
         <v>1800.0</v>
@@ -11826,7 +10739,7 @@
         <v>1819.0</v>
       </c>
       <c r="D136" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E136" t="n">
         <v>1815.0</v>
@@ -11837,7 +10750,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B137" t="n">
         <v>1800.0</v>
@@ -11846,7 +10759,7 @@
         <v>1819.0</v>
       </c>
       <c r="D137" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E137" t="n">
         <v>1816.0</v>
@@ -11857,7 +10770,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B138" t="n">
         <v>1800.0</v>
@@ -11866,7 +10779,7 @@
         <v>1819.0</v>
       </c>
       <c r="D138" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E138" t="n">
         <v>1817.0</v>
@@ -11877,7 +10790,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B139" t="n">
         <v>1800.0</v>
@@ -11886,7 +10799,7 @@
         <v>1819.0</v>
       </c>
       <c r="D139" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E139" t="n">
         <v>1818.0</v>
@@ -11897,7 +10810,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B140" t="n">
         <v>1800.0</v>
@@ -11906,7 +10819,7 @@
         <v>1819.0</v>
       </c>
       <c r="D140" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E140" t="n">
         <v>1819.0</v>
@@ -11917,7 +10830,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B141" t="n">
         <v>1820.0</v>
@@ -11926,7 +10839,7 @@
         <v>1859.0</v>
       </c>
       <c r="D141" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E141" t="n">
         <v>1820.0</v>
@@ -11937,7 +10850,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B142" t="n">
         <v>1820.0</v>
@@ -11946,7 +10859,7 @@
         <v>1859.0</v>
       </c>
       <c r="D142" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E142" t="n">
         <v>1821.0</v>
@@ -11957,7 +10870,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B143" t="n">
         <v>1820.0</v>
@@ -11966,7 +10879,7 @@
         <v>1859.0</v>
       </c>
       <c r="D143" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E143" t="n">
         <v>1822.0</v>
@@ -11977,7 +10890,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B144" t="n">
         <v>1820.0</v>
@@ -11986,7 +10899,7 @@
         <v>1859.0</v>
       </c>
       <c r="D144" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E144" t="n">
         <v>1823.0</v>
@@ -11997,7 +10910,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B145" t="n">
         <v>1820.0</v>
@@ -12006,7 +10919,7 @@
         <v>1859.0</v>
       </c>
       <c r="D145" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E145" t="n">
         <v>1824.0</v>
@@ -12017,7 +10930,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B146" t="n">
         <v>1820.0</v>
@@ -12026,7 +10939,7 @@
         <v>1859.0</v>
       </c>
       <c r="D146" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E146" t="n">
         <v>1825.0</v>
@@ -12037,7 +10950,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B147" t="n">
         <v>1820.0</v>
@@ -12046,7 +10959,7 @@
         <v>1859.0</v>
       </c>
       <c r="D147" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E147" t="n">
         <v>1826.0</v>
@@ -12057,7 +10970,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B148" t="n">
         <v>1820.0</v>
@@ -12066,7 +10979,7 @@
         <v>1859.0</v>
       </c>
       <c r="D148" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E148" t="n">
         <v>1827.0</v>
@@ -12077,7 +10990,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B149" t="n">
         <v>1820.0</v>
@@ -12086,7 +10999,7 @@
         <v>1859.0</v>
       </c>
       <c r="D149" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E149" t="n">
         <v>1828.0</v>
@@ -12097,7 +11010,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B150" t="n">
         <v>1820.0</v>
@@ -12106,7 +11019,7 @@
         <v>1859.0</v>
       </c>
       <c r="D150" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E150" t="n">
         <v>1829.0</v>
@@ -12117,7 +11030,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B151" t="n">
         <v>1820.0</v>
@@ -12126,7 +11039,7 @@
         <v>1859.0</v>
       </c>
       <c r="D151" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E151" t="n">
         <v>1830.0</v>
@@ -12137,7 +11050,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B152" t="n">
         <v>1820.0</v>
@@ -12146,7 +11059,7 @@
         <v>1859.0</v>
       </c>
       <c r="D152" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E152" t="n">
         <v>1831.0</v>
@@ -12157,7 +11070,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B153" t="n">
         <v>1820.0</v>
@@ -12166,7 +11079,7 @@
         <v>1859.0</v>
       </c>
       <c r="D153" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E153" t="n">
         <v>1832.0</v>
@@ -12177,7 +11090,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B154" t="n">
         <v>1820.0</v>
@@ -12186,7 +11099,7 @@
         <v>1859.0</v>
       </c>
       <c r="D154" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E154" t="n">
         <v>1833.0</v>
@@ -12197,7 +11110,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B155" t="n">
         <v>1820.0</v>
@@ -12206,7 +11119,7 @@
         <v>1859.0</v>
       </c>
       <c r="D155" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E155" t="n">
         <v>1834.0</v>
@@ -12217,7 +11130,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B156" t="n">
         <v>1820.0</v>
@@ -12226,7 +11139,7 @@
         <v>1859.0</v>
       </c>
       <c r="D156" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E156" t="n">
         <v>1835.0</v>
@@ -12237,7 +11150,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B157" t="n">
         <v>1820.0</v>
@@ -12246,7 +11159,7 @@
         <v>1859.0</v>
       </c>
       <c r="D157" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E157" t="n">
         <v>1836.0</v>
@@ -12257,7 +11170,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B158" t="n">
         <v>1820.0</v>
@@ -12266,7 +11179,7 @@
         <v>1859.0</v>
       </c>
       <c r="D158" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E158" t="n">
         <v>1837.0</v>
@@ -12277,7 +11190,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B159" t="n">
         <v>1820.0</v>
@@ -12286,7 +11199,7 @@
         <v>1859.0</v>
       </c>
       <c r="D159" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E159" t="n">
         <v>1838.0</v>
@@ -12297,7 +11210,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B160" t="n">
         <v>1820.0</v>
@@ -12306,7 +11219,7 @@
         <v>1859.0</v>
       </c>
       <c r="D160" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E160" t="n">
         <v>1839.0</v>
@@ -12317,7 +11230,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B161" t="n">
         <v>1820.0</v>
@@ -12326,7 +11239,7 @@
         <v>1859.0</v>
       </c>
       <c r="D161" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E161" t="n">
         <v>1840.0</v>
@@ -12337,7 +11250,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B162" t="n">
         <v>1820.0</v>
@@ -12346,7 +11259,7 @@
         <v>1859.0</v>
       </c>
       <c r="D162" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E162" t="n">
         <v>1841.0</v>
@@ -12357,7 +11270,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B163" t="n">
         <v>1820.0</v>
@@ -12366,7 +11279,7 @@
         <v>1859.0</v>
       </c>
       <c r="D163" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E163" t="n">
         <v>1842.0</v>
@@ -12377,7 +11290,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B164" t="n">
         <v>1820.0</v>
@@ -12386,7 +11299,7 @@
         <v>1859.0</v>
       </c>
       <c r="D164" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E164" t="n">
         <v>1843.0</v>
@@ -12397,7 +11310,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B165" t="n">
         <v>1820.0</v>
@@ -12406,7 +11319,7 @@
         <v>1859.0</v>
       </c>
       <c r="D165" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E165" t="n">
         <v>1844.0</v>
@@ -12417,7 +11330,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B166" t="n">
         <v>1820.0</v>
@@ -12426,7 +11339,7 @@
         <v>1859.0</v>
       </c>
       <c r="D166" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E166" t="n">
         <v>1845.0</v>
@@ -12437,7 +11350,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B167" t="n">
         <v>1820.0</v>
@@ -12446,7 +11359,7 @@
         <v>1859.0</v>
       </c>
       <c r="D167" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E167" t="n">
         <v>1846.0</v>
@@ -12457,7 +11370,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B168" t="n">
         <v>1820.0</v>
@@ -12466,7 +11379,7 @@
         <v>1859.0</v>
       </c>
       <c r="D168" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E168" t="n">
         <v>1847.0</v>
@@ -12477,7 +11390,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B169" t="n">
         <v>1820.0</v>
@@ -12486,7 +11399,7 @@
         <v>1859.0</v>
       </c>
       <c r="D169" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E169" t="n">
         <v>1848.0</v>
@@ -12497,7 +11410,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B170" t="n">
         <v>1820.0</v>
@@ -12506,7 +11419,7 @@
         <v>1859.0</v>
       </c>
       <c r="D170" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E170" t="n">
         <v>1849.0</v>
@@ -12517,7 +11430,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B171" t="n">
         <v>1820.0</v>
@@ -12526,7 +11439,7 @@
         <v>1859.0</v>
       </c>
       <c r="D171" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E171" t="n">
         <v>1850.0</v>
@@ -12537,7 +11450,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B172" t="n">
         <v>1820.0</v>
@@ -12546,7 +11459,7 @@
         <v>1859.0</v>
       </c>
       <c r="D172" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E172" t="n">
         <v>1851.0</v>
@@ -12557,7 +11470,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B173" t="n">
         <v>1820.0</v>
@@ -12566,7 +11479,7 @@
         <v>1859.0</v>
       </c>
       <c r="D173" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E173" t="n">
         <v>1852.0</v>
@@ -12577,7 +11490,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B174" t="n">
         <v>1820.0</v>
@@ -12586,7 +11499,7 @@
         <v>1859.0</v>
       </c>
       <c r="D174" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E174" t="n">
         <v>1853.0</v>
@@ -12597,7 +11510,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B175" t="n">
         <v>1820.0</v>
@@ -12606,7 +11519,7 @@
         <v>1859.0</v>
       </c>
       <c r="D175" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E175" t="n">
         <v>1854.0</v>
@@ -12617,7 +11530,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B176" t="n">
         <v>1820.0</v>
@@ -12626,7 +11539,7 @@
         <v>1859.0</v>
       </c>
       <c r="D176" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E176" t="n">
         <v>1855.0</v>
@@ -12637,7 +11550,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B177" t="n">
         <v>1820.0</v>
@@ -12646,7 +11559,7 @@
         <v>1859.0</v>
       </c>
       <c r="D177" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E177" t="n">
         <v>1856.0</v>
@@ -12657,7 +11570,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B178" t="n">
         <v>1820.0</v>
@@ -12666,7 +11579,7 @@
         <v>1859.0</v>
       </c>
       <c r="D178" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E178" t="n">
         <v>1857.0</v>
@@ -12677,7 +11590,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B179" t="n">
         <v>1820.0</v>
@@ -12686,7 +11599,7 @@
         <v>1859.0</v>
       </c>
       <c r="D179" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E179" t="n">
         <v>1858.0</v>
@@ -12697,7 +11610,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B180" t="n">
         <v>1820.0</v>
@@ -12706,7 +11619,7 @@
         <v>1859.0</v>
       </c>
       <c r="D180" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E180" t="n">
         <v>1859.0</v>
@@ -12717,7 +11630,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B181" t="n">
         <v>1860.0</v>
@@ -12726,7 +11639,7 @@
         <v>1879.0</v>
       </c>
       <c r="D181" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E181" t="n">
         <v>1860.0</v>
@@ -12737,7 +11650,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B182" t="n">
         <v>1860.0</v>
@@ -12746,7 +11659,7 @@
         <v>1879.0</v>
       </c>
       <c r="D182" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E182" t="n">
         <v>1861.0</v>
@@ -12757,7 +11670,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B183" t="n">
         <v>1860.0</v>
@@ -12766,7 +11679,7 @@
         <v>1879.0</v>
       </c>
       <c r="D183" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E183" t="n">
         <v>1862.0</v>
@@ -12777,7 +11690,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B184" t="n">
         <v>1860.0</v>
@@ -12786,7 +11699,7 @@
         <v>1879.0</v>
       </c>
       <c r="D184" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E184" t="n">
         <v>1863.0</v>
@@ -12797,7 +11710,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B185" t="n">
         <v>1860.0</v>
@@ -12806,7 +11719,7 @@
         <v>1879.0</v>
       </c>
       <c r="D185" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E185" t="n">
         <v>1864.0</v>
@@ -12817,7 +11730,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B186" t="n">
         <v>1860.0</v>
@@ -12826,7 +11739,7 @@
         <v>1879.0</v>
       </c>
       <c r="D186" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E186" t="n">
         <v>1865.0</v>
@@ -12837,7 +11750,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B187" t="n">
         <v>1860.0</v>
@@ -12846,7 +11759,7 @@
         <v>1879.0</v>
       </c>
       <c r="D187" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E187" t="n">
         <v>1866.0</v>
@@ -12857,7 +11770,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B188" t="n">
         <v>1860.0</v>
@@ -12866,7 +11779,7 @@
         <v>1879.0</v>
       </c>
       <c r="D188" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E188" t="n">
         <v>1867.0</v>
@@ -12877,7 +11790,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B189" t="n">
         <v>1860.0</v>
@@ -12886,7 +11799,7 @@
         <v>1879.0</v>
       </c>
       <c r="D189" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E189" t="n">
         <v>1868.0</v>
@@ -12897,7 +11810,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B190" t="n">
         <v>1860.0</v>
@@ -12906,7 +11819,7 @@
         <v>1879.0</v>
       </c>
       <c r="D190" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E190" t="n">
         <v>1869.0</v>
@@ -12917,7 +11830,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B191" t="n">
         <v>1860.0</v>
@@ -12926,7 +11839,7 @@
         <v>1879.0</v>
       </c>
       <c r="D191" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E191" t="n">
         <v>1870.0</v>
@@ -12937,7 +11850,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B192" t="n">
         <v>1860.0</v>
@@ -12946,7 +11859,7 @@
         <v>1879.0</v>
       </c>
       <c r="D192" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E192" t="n">
         <v>1871.0</v>
@@ -12957,7 +11870,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B193" t="n">
         <v>1860.0</v>
@@ -12966,7 +11879,7 @@
         <v>1879.0</v>
       </c>
       <c r="D193" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E193" t="n">
         <v>1872.0</v>
@@ -12977,7 +11890,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B194" t="n">
         <v>1860.0</v>
@@ -12986,7 +11899,7 @@
         <v>1879.0</v>
       </c>
       <c r="D194" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E194" t="n">
         <v>1873.0</v>
@@ -12997,7 +11910,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B195" t="n">
         <v>1860.0</v>
@@ -13006,7 +11919,7 @@
         <v>1879.0</v>
       </c>
       <c r="D195" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E195" t="n">
         <v>1874.0</v>
@@ -13017,7 +11930,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B196" t="n">
         <v>1860.0</v>
@@ -13026,7 +11939,7 @@
         <v>1879.0</v>
       </c>
       <c r="D196" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E196" t="n">
         <v>1875.0</v>
@@ -13037,7 +11950,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B197" t="n">
         <v>1860.0</v>
@@ -13046,7 +11959,7 @@
         <v>1879.0</v>
       </c>
       <c r="D197" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E197" t="n">
         <v>1876.0</v>
@@ -13057,7 +11970,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B198" t="n">
         <v>1860.0</v>
@@ -13066,7 +11979,7 @@
         <v>1879.0</v>
       </c>
       <c r="D198" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E198" t="n">
         <v>1877.0</v>
@@ -13077,7 +11990,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B199" t="n">
         <v>1860.0</v>
@@ -13086,7 +11999,7 @@
         <v>1879.0</v>
       </c>
       <c r="D199" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E199" t="n">
         <v>1878.0</v>
@@ -13097,7 +12010,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>720</v>
+        <v>532</v>
       </c>
       <c r="B200" t="n">
         <v>1860.0</v>
@@ -13106,7 +12019,7 @@
         <v>1879.0</v>
       </c>
       <c r="D200" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="E200" t="n">
         <v>1879.0</v>
@@ -13130,68 +12043,68 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>722</v>
+        <v>539</v>
       </c>
       <c r="B1" t="s">
-        <v>723</v>
+        <v>540</v>
       </c>
       <c r="C1" t="s">
-        <v>724</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>725</v>
+        <v>542</v>
       </c>
       <c r="B2" t="s">
-        <v>730</v>
+        <v>547</v>
       </c>
       <c r="C2" t="s">
-        <v>731</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>726</v>
+        <v>543</v>
       </c>
       <c r="B3" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="C3" t="s">
-        <v>732</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>727</v>
+        <v>544</v>
       </c>
       <c r="B4" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="C4" t="s">
-        <v>733</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>728</v>
+        <v>545</v>
       </c>
       <c r="B5" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="C5" t="s">
-        <v>734</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>729</v>
+        <v>546</v>
       </c>
       <c r="B6" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
       <c r="C6" t="s">
-        <v>735</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
